--- a/data/hotels_by_city/Houston/Houston_shard_358.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_358.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="774">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56855-d1464964-Reviews-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Houston-Webster.h2745430.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2246 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r596303731-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>56855</t>
+  </si>
+  <si>
+    <t>1464964</t>
+  </si>
+  <si>
+    <t>596303731</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t>Nice and Clean</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise.  The room was clean and very quiet.  The front desk staff was really nice and professional.  We liked the lobby bar for catching a few quick drinks.  NASA is right down the road and you can purchase tickets at the hotel for $25 each.  I would definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Cheryl T, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise.  The room was clean and very quiet.  The front desk staff was really nice and professional.  We liked the lobby bar for catching a few quick drinks.  NASA is right down the road and you can purchase tickets at the hotel for $25 each.  I would definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r588536737-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>588536737</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Hotels to stay in Webster/Houston ara</t>
+  </si>
+  <si>
+    <t>Got stranded by Hurricane Harvey in Houston. Can't get to a good hotel downtown so I stayed in Webster, Texas.Holiday Inn/Webster is affordable and passable Holiday Inn. It was recently renovated to make it a comfortable place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r587520127-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>587520127</t>
+  </si>
+  <si>
+    <t>06/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE Side convenience </t>
+  </si>
+  <si>
+    <t>I stayed here for two nights recently. It is near enough to Houston and accessible within 30 minutes off peak. Hotel is clean and the staff is friendly and well trained. I would recommend this hotel for allMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Cheryl T, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded June 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 16, 2018</t>
+  </si>
+  <si>
+    <t>I stayed here for two nights recently. It is near enough to Houston and accessible within 30 minutes off peak. Hotel is clean and the staff is friendly and well trained. I would recommend this hotel for allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r554059691-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>554059691</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Awesome location near everything you can possibly think of. Clean rooms. Nice workers. Breakfast is Great. Did I mention clean. Will stay again. Near bowling, movies, and several food places, mall, Dave and busters.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl T, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2018</t>
+  </si>
+  <si>
+    <t>Awesome location near everything you can possibly think of. Clean rooms. Nice workers. Breakfast is Great. Did I mention clean. Will stay again. Near bowling, movies, and several food places, mall, Dave and busters.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r524188600-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>524188600</t>
+  </si>
+  <si>
+    <t>09/13/2017</t>
+  </si>
+  <si>
+    <t>Stayed the night Before a Cruise</t>
+  </si>
+  <si>
+    <t>This area was hit by the high waters etc. of Harvey earlier in the week. They opened their doors to rescuers and to those displaced. It did my heart good to see how others can help out during tragic events. The rooms were nice and clean and the beds were awesome! I will recommend this hotel.....for sure!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Cheryl T, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded March 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2018</t>
+  </si>
+  <si>
+    <t>This area was hit by the high waters etc. of Harvey earlier in the week. They opened their doors to rescuers and to those displaced. It did my heart good to see how others can help out during tragic events. The rooms were nice and clean and the beds were awesome! I will recommend this hotel.....for sure!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r507421328-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>507421328</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Relaxing Evening</t>
+  </si>
+  <si>
+    <t>This is our preferred resting spot after M. D. Anderson Cancer Center visit.  The hotel is convenient to our visit and the staff is friendly and accommodating.  The rooms are spacious, clean, relaxing and quiet.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Cheryl T, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded August 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2017</t>
+  </si>
+  <si>
+    <t>This is our preferred resting spot after M. D. Anderson Cancer Center visit.  The hotel is convenient to our visit and the staff is friendly and accommodating.  The rooms are spacious, clean, relaxing and quiet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r496374772-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>496374772</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Business traveler</t>
+  </si>
+  <si>
+    <t>Not so pleased on this stay. I am a Spire member and have received no consideration. The tv sucks and the Internet also sucks. If you stay a lot at HIG I would recommend staying at the Staybridge Suites just around the corner.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2017</t>
+  </si>
+  <si>
+    <t>Not so pleased on this stay. I am a Spire member and have received no consideration. The tv sucks and the Internet also sucks. If you stay a lot at HIG I would recommend staying at the Staybridge Suites just around the corner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r490747882-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>490747882</t>
+  </si>
+  <si>
+    <t>06/05/2017</t>
+  </si>
+  <si>
+    <t>Super nice!!</t>
+  </si>
+  <si>
+    <t>This stay was a last-minute decision as a stay for the night before leaving for a cruise sailing from Galveston. Very convenient and just a short drive to the Galveston port the next morning!! This hotel was spotlessly clean and very modern and comfortable. Access to various restaurants within walking distance was awesome! Would definitely recommend to anyone traveling through this area!!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r486873219-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>486873219</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>Holiday Inn at Bay Area Blvd. Webster, TX</t>
+  </si>
+  <si>
+    <t>Nice hotel. Clean, well kept, good service, reasonable price, nice location close to Johnson Space Center and Nassau Bay. We needed a hotel close to Seabrook, TX. NASA's JSC is 10 minutes away from hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r473166481-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>473166481</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>BEST HOLIDAY INN FACILITY also WORST CUSTOMER SERVICE</t>
+  </si>
+  <si>
+    <t>I travel for business on a regular basis I hold the platinum elite status in the IHG rewards club and have stayed at this particular hotel since July 2013Hands down the nicest Holiday In I have stayed in. The problem will be with your bill and resolving the overcharges, the desk wont call you back the manager wont call you back you have to get resolution from your credit card company with a protest. This hotel is not owned by Holiday Inn Corp......I will no longer allow my employees to stay there as I don't like to have to chase my money when its clearly the hotels error.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r472426063-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>472426063</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>good stay</t>
+  </si>
+  <si>
+    <t>Come to expect good things from Holiday Inn.Only a few minor complaints.The hot tub didn't get very hot. The was rather cold (though I don't think it is heated)The hotel was somewhat of a pain to get into. It was tucked behind a small strip mall with only one entrance and exit. To get in, you had to go around the block (due to a median right in front of the entrance/exit....you couldn't directly turn left) and when you left, you could only turn right and then make a U-turn at the light.It is located very close to the Johnson Space Center and about 15mins from Kemah Boardwalk.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r472093531-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>472093531</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nice central location </t>
+  </si>
+  <si>
+    <t>Room was clean, staff was very nice, Breakfast was adequate.  the Beds and pillows are very comfortable.  The location is perfect if planning to visit attractions such as NASA, Kemah boardwalk, short drive or walk to MANY restaurants and shopping areas.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r467622883-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>467622883</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Former favorite on the decline</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel for years and have been glad to write positive reviews in the past.  However, the service and the facility have begun to decline. On our recent visit, we had a room with two very bad mattresses (springs squeaky and big dip in the middle). Even the computer desk chair was broken down.  The maid only got our room cleaned when we found her down the hall at 2:30 and requested it.  The man at the front desk that first afternoon was very unhelpful on changing rooms.  The pool and hot tub were not working (at least the repair people showed up to work on them).  It's frustrating to see this happening and not receive the treatment we've been accustomed to in the past.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl T, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded March 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 18, 2017</t>
+  </si>
+  <si>
+    <t>We have stayed at this hotel for years and have been glad to write positive reviews in the past.  However, the service and the facility have begun to decline. On our recent visit, we had a room with two very bad mattresses (springs squeaky and big dip in the middle). Even the computer desk chair was broken down.  The maid only got our room cleaned when we found her down the hall at 2:30 and requested it.  The man at the front desk that first afternoon was very unhelpful on changing rooms.  The pool and hot tub were not working (at least the repair people showed up to work on them).  It's frustrating to see this happening and not receive the treatment we've been accustomed to in the past.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r455821193-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>455821193</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>As all Holiday Inn's throughout the world, very friendly service, sometimes over friendly which can be annoying but I like the extra fuss :-) nice clean rooms, gym and swimming pool which was relaxing after a day in the office and to cool down from the outside temperature and Texas humidity...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Cheryl T, Manager at Holiday Inn Houston - Webster, responded to this reviewResponded February 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2017</t>
+  </si>
+  <si>
+    <t>As all Holiday Inn's throughout the world, very friendly service, sometimes over friendly which can be annoying but I like the extra fuss :-) nice clean rooms, gym and swimming pool which was relaxing after a day in the office and to cool down from the outside temperature and Texas humidity...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r434616968-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>434616968</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Best hotel in this area</t>
+  </si>
+  <si>
+    <t>This hotel is the best option (value) in this part of the Houston metro area. I stay here often - roughly 20 trips in the last 18 months, usually for several days at a time. The staff are consistently polite and helpful. There aren't many surprises here.
+The decor is very nice for this category of hotel and the property is consistently being kept up to date. New furniture everywhere (the old stuff wasn't bad) and new Keurig-style coffee machines in all rooms.
+The worst room here has plenty of space and most rooms are VERY spacious. The beds are comfortable and the buffet breakfast is nice for this category of hotel. The in-hotel restaurant is a fine choice if you need or want to stay in the hotel for dinner. I think the prices are reasonable and the food is fairly good for this type of hotel.
+Easy to find parking that's close to the hotel. Many good restaurant options close to the hotel and a few are within a short walking distance. If you forget any toiletries, the hotel will give you whatever you need at no charge.
+I really only have two complaints. First, I wish the TVs were a bit larger given the size of the rooms. Second, I wish there was pay per view (movies on demand) in the rooms. 
+I'm a picky traveler. If you are looking for a safe, comfortable and attractive mid-level...This hotel is the best option (value) in this part of the Houston metro area. I stay here often - roughly 20 trips in the last 18 months, usually for several days at a time. The staff are consistently polite and helpful. There aren't many surprises here.The decor is very nice for this category of hotel and the property is consistently being kept up to date. New furniture everywhere (the old stuff wasn't bad) and new Keurig-style coffee machines in all rooms.The worst room here has plenty of space and most rooms are VERY spacious. The beds are comfortable and the buffet breakfast is nice for this category of hotel. The in-hotel restaurant is a fine choice if you need or want to stay in the hotel for dinner. I think the prices are reasonable and the food is fairly good for this type of hotel.Easy to find parking that's close to the hotel. Many good restaurant options close to the hotel and a few are within a short walking distance. If you forget any toiletries, the hotel will give you whatever you need at no charge.I really only have two complaints. First, I wish the TVs were a bit larger given the size of the rooms. Second, I wish there was pay per view (movies on demand) in the rooms. I'm a picky traveler. If you are looking for a safe, comfortable and attractive mid-level hotel, I highly recommend this place. It's not a Ritz-Carlton by any means but it's a really nice place if you're staying at this category of hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Susan W, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded January 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is the best option (value) in this part of the Houston metro area. I stay here often - roughly 20 trips in the last 18 months, usually for several days at a time. The staff are consistently polite and helpful. There aren't many surprises here.
+The decor is very nice for this category of hotel and the property is consistently being kept up to date. New furniture everywhere (the old stuff wasn't bad) and new Keurig-style coffee machines in all rooms.
+The worst room here has plenty of space and most rooms are VERY spacious. The beds are comfortable and the buffet breakfast is nice for this category of hotel. The in-hotel restaurant is a fine choice if you need or want to stay in the hotel for dinner. I think the prices are reasonable and the food is fairly good for this type of hotel.
+Easy to find parking that's close to the hotel. Many good restaurant options close to the hotel and a few are within a short walking distance. If you forget any toiletries, the hotel will give you whatever you need at no charge.
+I really only have two complaints. First, I wish the TVs were a bit larger given the size of the rooms. Second, I wish there was pay per view (movies on demand) in the rooms. 
+I'm a picky traveler. If you are looking for a safe, comfortable and attractive mid-level...This hotel is the best option (value) in this part of the Houston metro area. I stay here often - roughly 20 trips in the last 18 months, usually for several days at a time. The staff are consistently polite and helpful. There aren't many surprises here.The decor is very nice for this category of hotel and the property is consistently being kept up to date. New furniture everywhere (the old stuff wasn't bad) and new Keurig-style coffee machines in all rooms.The worst room here has plenty of space and most rooms are VERY spacious. The beds are comfortable and the buffet breakfast is nice for this category of hotel. The in-hotel restaurant is a fine choice if you need or want to stay in the hotel for dinner. I think the prices are reasonable and the food is fairly good for this type of hotel.Easy to find parking that's close to the hotel. Many good restaurant options close to the hotel and a few are within a short walking distance. If you forget any toiletries, the hotel will give you whatever you need at no charge.I really only have two complaints. First, I wish the TVs were a bit larger given the size of the rooms. Second, I wish there was pay per view (movies on demand) in the rooms. I'm a picky traveler. If you are looking for a safe, comfortable and attractive mid-level hotel, I highly recommend this place. It's not a Ritz-Carlton by any means but it's a really nice place if you're staying at this category of hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r427762269-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>427762269</t>
+  </si>
+  <si>
+    <t>10/13/2016</t>
+  </si>
+  <si>
+    <t>Good hotel close to the space center</t>
+  </si>
+  <si>
+    <t>Good clean room, helpful check in staff, breakfast reasonable. Close to the space center and so easy to get to a tour there. Room clean and comfortable. Good beds and pillows. Easy access from freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded October 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 16, 2016</t>
+  </si>
+  <si>
+    <t>Good clean room, helpful check in staff, breakfast reasonable. Close to the space center and so easy to get to a tour there. Room clean and comfortable. Good beds and pillows. Easy access from freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r425150713-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>425150713</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Not bad for the cost</t>
+  </si>
+  <si>
+    <t>We booked this hotel so we could get a suite that had a separate living area and bedroom. Our room was exactly what we needed but nothing more.  The room was cleaned but it was very old and shabby. The walls had holes from where they had moved the drapes, they were also very dirty and could use a coat of paint.  Overall it met our needs as all we really did was sleep and shower there. We only need the extra area so my husband could watch tv while I slept in. The breakfast was definitely not worth the price, especially since there is an Egg&amp;I practically across the street. The worst thing was that the lobby smelled like a combination of raw sewage and mildew. The room smelled fine but the lobby was basically a hold your nose and hurry through.  It is a good location and a very low priced so it may not be great but it's cheap. MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We booked this hotel so we could get a suite that had a separate living area and bedroom. Our room was exactly what we needed but nothing more.  The room was cleaned but it was very old and shabby. The walls had holes from where they had moved the drapes, they were also very dirty and could use a coat of paint.  Overall it met our needs as all we really did was sleep and shower there. We only need the extra area so my husband could watch tv while I slept in. The breakfast was definitely not worth the price, especially since there is an Egg&amp;I practically across the street. The worst thing was that the lobby smelled like a combination of raw sewage and mildew. The room smelled fine but the lobby was basically a hold your nose and hurry through.  It is a good location and a very low priced so it may not be great but it's cheap. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r422253092-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>422253092</t>
+  </si>
+  <si>
+    <t>09/25/2016</t>
+  </si>
+  <si>
+    <t>Surpassed my expectations</t>
+  </si>
+  <si>
+    <t>From the day I made my booking over the phone, the GM Sheryl gladly assisted me, check-in by Anthony is awesome; he acknowledged my Platinum Elite membership &amp; upgraded my room to suite. The night shift staff Maria, (i hope I remebered her name right), was also very patient in giving suggestions of things to do &amp; where to go. Our server at the restaurant, Hector, is very pleasant and helpful. The food is also good. The lady that checked us out is also very nice. I'm impressed! They have great teamwork, gives me the impression that they love their job &amp; are accountable for their actions. Everybody's professional and friendly even the housekeeping and maintenance guy I bumped into the elevator. Room for improvement is to clean the pool more often. There are peebles/stones in the pool and baby diaper left by the pool side that I saw on Sat night that is still there Sunday morning at 10AM. Their pool opens at 6am, I thought they will clean it prior to opening hours. Despite this, my overall stay is great. I will definitely go back there again, of course hoping that the pool will be cleaner.MoreShow less</t>
+  </si>
+  <si>
+    <t>From the day I made my booking over the phone, the GM Sheryl gladly assisted me, check-in by Anthony is awesome; he acknowledged my Platinum Elite membership &amp; upgraded my room to suite. The night shift staff Maria, (i hope I remebered her name right), was also very patient in giving suggestions of things to do &amp; where to go. Our server at the restaurant, Hector, is very pleasant and helpful. The food is also good. The lady that checked us out is also very nice. I'm impressed! They have great teamwork, gives me the impression that they love their job &amp; are accountable for their actions. Everybody's professional and friendly even the housekeeping and maintenance guy I bumped into the elevator. Room for improvement is to clean the pool more often. There are peebles/stones in the pool and baby diaper left by the pool side that I saw on Sat night that is still there Sunday morning at 10AM. Their pool opens at 6am, I thought they will clean it prior to opening hours. Despite this, my overall stay is great. I will definitely go back there again, of course hoping that the pool will be cleaner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r402858135-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>402858135</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Travel Club Trip</t>
+  </si>
+  <si>
+    <t>HI in Webster and staff are shining stars.  Our travel club travelled to Webster TX from Mississippi and lodged at your beautiful hotel.  Our accommodations went above and beyond expectations (i.e. comfort, hospitality, accessibility, affordability).  I would like to thank your staff and especially Ms. Cheryl Williams for providing excellent service to our group.  I would definitely lodge there again and would recommend to all.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded August 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 20, 2016</t>
+  </si>
+  <si>
+    <t>HI in Webster and staff are shining stars.  Our travel club travelled to Webster TX from Mississippi and lodged at your beautiful hotel.  Our accommodations went above and beyond expectations (i.e. comfort, hospitality, accessibility, affordability).  I would like to thank your staff and especially Ms. Cheryl Williams for providing excellent service to our group.  I would definitely lodge there again and would recommend to all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r389054637-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>389054637</t>
+  </si>
+  <si>
+    <t>07/04/2016</t>
+  </si>
+  <si>
+    <t>Wonderful stay</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay at the Holiday Inn Express in Webster Texas.  The staff was wonderful and helpful.. cant say enough about this hotel.  When we checked-in the front desk answered all our questions.. and were very nice and professional.. the rooms are huge and had enough space.  The hotel itself smelled wonderful.  Very Clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Had a wonderful stay at the Holiday Inn Express in Webster Texas.  The staff was wonderful and helpful.. cant say enough about this hotel.  When we checked-in the front desk answered all our questions.. and were very nice and professional.. the rooms are huge and had enough space.  The hotel itself smelled wonderful.  Very Clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r388151379-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>388151379</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Excellent Choice in Hotel</t>
+  </si>
+  <si>
+    <t>This is definitely one of the best hotels I've stayed in. We chose this particular Holiday Inn due to it being so close to the medical facility where my wife received medical care. 
+At check in, I was greeted by Loki, the most friendly hotel clerk that has ever assisted me in checking in to a hotel. He was fast, efficient, and very competent. Usually the check in process it the part I hate doing because something always seems to hamper it, especially when you book through a third party like Priceline or Expedia. Since I made two different reservations for separate nights, Loki kindly joined the two reservations to accommodate me so I wouldn't have to return to the desk the following morning. (Me having done this before, has had to re-check in the next day.) But thankfully, my experience was very pleasant.
+Our room was perfect, the bed was unbelievably comfortable, and the room appeared extremely clean. The air conditioner worked good, but at night it seems to cut off for extended periods making it somewhat hot. (Maybe it's motion activated because when either me or my wife got up during the night, it always seemed to kick back on.) Luckily I always travel with a fan so we didn't suffer.
+The hallways were quite at night, which was very pleasant. And the parking lot is well lit at night, making me worry less about our vehicle.
+Overall...This is definitely one of the best hotels I've stayed in. We chose this particular Holiday Inn due to it being so close to the medical facility where my wife received medical care. At check in, I was greeted by Loki, the most friendly hotel clerk that has ever assisted me in checking in to a hotel. He was fast, efficient, and very competent. Usually the check in process it the part I hate doing because something always seems to hamper it, especially when you book through a third party like Priceline or Expedia. Since I made two different reservations for separate nights, Loki kindly joined the two reservations to accommodate me so I wouldn't have to return to the desk the following morning. (Me having done this before, has had to re-check in the next day.) But thankfully, my experience was very pleasant.Our room was perfect, the bed was unbelievably comfortable, and the room appeared extremely clean. The air conditioner worked good, but at night it seems to cut off for extended periods making it somewhat hot. (Maybe it's motion activated because when either me or my wife got up during the night, it always seemed to kick back on.) Luckily I always travel with a fan so we didn't suffer.The hallways were quite at night, which was very pleasant. And the parking lot is well lit at night, making me worry less about our vehicle.Overall this was a wonderful stay and we will definitely choose this Holiday Inn again when we need to return to the Clear Lake area. My sincere appreciation to the management of this hotel for a job well done.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>This is definitely one of the best hotels I've stayed in. We chose this particular Holiday Inn due to it being so close to the medical facility where my wife received medical care. 
+At check in, I was greeted by Loki, the most friendly hotel clerk that has ever assisted me in checking in to a hotel. He was fast, efficient, and very competent. Usually the check in process it the part I hate doing because something always seems to hamper it, especially when you book through a third party like Priceline or Expedia. Since I made two different reservations for separate nights, Loki kindly joined the two reservations to accommodate me so I wouldn't have to return to the desk the following morning. (Me having done this before, has had to re-check in the next day.) But thankfully, my experience was very pleasant.
+Our room was perfect, the bed was unbelievably comfortable, and the room appeared extremely clean. The air conditioner worked good, but at night it seems to cut off for extended periods making it somewhat hot. (Maybe it's motion activated because when either me or my wife got up during the night, it always seemed to kick back on.) Luckily I always travel with a fan so we didn't suffer.
+The hallways were quite at night, which was very pleasant. And the parking lot is well lit at night, making me worry less about our vehicle.
+Overall...This is definitely one of the best hotels I've stayed in. We chose this particular Holiday Inn due to it being so close to the medical facility where my wife received medical care. At check in, I was greeted by Loki, the most friendly hotel clerk that has ever assisted me in checking in to a hotel. He was fast, efficient, and very competent. Usually the check in process it the part I hate doing because something always seems to hamper it, especially when you book through a third party like Priceline or Expedia. Since I made two different reservations for separate nights, Loki kindly joined the two reservations to accommodate me so I wouldn't have to return to the desk the following morning. (Me having done this before, has had to re-check in the next day.) But thankfully, my experience was very pleasant.Our room was perfect, the bed was unbelievably comfortable, and the room appeared extremely clean. The air conditioner worked good, but at night it seems to cut off for extended periods making it somewhat hot. (Maybe it's motion activated because when either me or my wife got up during the night, it always seemed to kick back on.) Luckily I always travel with a fan so we didn't suffer.The hallways were quite at night, which was very pleasant. And the parking lot is well lit at night, making me worry less about our vehicle.Overall this was a wonderful stay and we will definitely choose this Holiday Inn again when we need to return to the Clear Lake area. My sincere appreciation to the management of this hotel for a job well done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r379313272-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>379313272</t>
+  </si>
+  <si>
+    <t>06/03/2016</t>
+  </si>
+  <si>
+    <t>Standard HI</t>
+  </si>
+  <si>
+    <t>We stayed for two nights.  Hotel was clean, comfortable, quiet and easy access to our planned stops for the duration-dinner with friends and the Space Center. Staff was welcoming, and we had no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded June 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2016</t>
+  </si>
+  <si>
+    <t>We stayed for two nights.  Hotel was clean, comfortable, quiet and easy access to our planned stops for the duration-dinner with friends and the Space Center. Staff was welcoming, and we had no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r378124169-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>378124169</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Awesome stay</t>
+  </si>
+  <si>
+    <t>Awesome experience, was greeted by Cheryl at the desk, and she made us feel right at home, room was clean, large, quiet, the breakfast was great, was served by Danille, and she too did an amazing job! Would definitely stay here again, and would recommend it to all!MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2016</t>
+  </si>
+  <si>
+    <t>Awesome experience, was greeted by Cheryl at the desk, and she made us feel right at home, room was clean, large, quiet, the breakfast was great, was served by Danille, and she too did an amazing job! Would definitely stay here again, and would recommend it to all!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r375969533-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>375969533</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>0 TV reception, luke-warm bath and Spa water.  Definitely disappointing!!!</t>
+  </si>
+  <si>
+    <t>Came here expecting a typical HI experience - NOT!!!  Their TV reception stopped shortly after arrival and didn't come on all night for some reason.  Went to enjoy a nice soaky Hot Tub to find it was merely luke-warm, yuck!!  Then went from there to the Bath water and found it was NO DIFFERENT!  All around a VERY disappointing stay here!  Certainly not recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Came here expecting a typical HI experience - NOT!!!  Their TV reception stopped shortly after arrival and didn't come on all night for some reason.  Went to enjoy a nice soaky Hot Tub to find it was merely luke-warm, yuck!!  Then went from there to the Bath water and found it was NO DIFFERENT!  All around a VERY disappointing stay here!  Certainly not recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r364819372-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>364819372</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Rip Off</t>
+  </si>
+  <si>
+    <t>We stayed at this establishment for 5 nights after the death of a family member.  The reservations were made by the parent of the deceased who had requested my room be separate and military discount.  Upon arrival we were told that the reservation was prepaid and could not be changed.  My sister would have to pay and no military discounts applied.  We were given "best rate".  The first morning I went down to see if they had forgotten to give us out breakfast coupons, Oh no the manager said.  You have best rate so that does not qualify for free breakfast.  I pleaded with her to straighten out the reservation.  I wanted the military discount with breakfast included as I always get at Holiday Inn.  I also wanted my credit card and hotel points.  She would not budge and suggested I take it up with corporate.  After the trip my sister did just that. Funny thing was after she had her end straightened out I was told I had to talk to the very person who "couldn't fix it".  Ended up getting the military discount but I feel they owe me due to not getting the hotel points and having to pay for breakfast.   They allowed me to pay for my room with my card but said they can't give me the hotel points.  From here on out I will stick with Marriott hotels.  Done with Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, Manager at Holiday Inn Houston - Webster, responded to this reviewResponded April 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at this establishment for 5 nights after the death of a family member.  The reservations were made by the parent of the deceased who had requested my room be separate and military discount.  Upon arrival we were told that the reservation was prepaid and could not be changed.  My sister would have to pay and no military discounts applied.  We were given "best rate".  The first morning I went down to see if they had forgotten to give us out breakfast coupons, Oh no the manager said.  You have best rate so that does not qualify for free breakfast.  I pleaded with her to straighten out the reservation.  I wanted the military discount with breakfast included as I always get at Holiday Inn.  I also wanted my credit card and hotel points.  She would not budge and suggested I take it up with corporate.  After the trip my sister did just that. Funny thing was after she had her end straightened out I was told I had to talk to the very person who "couldn't fix it".  Ended up getting the military discount but I feel they owe me due to not getting the hotel points and having to pay for breakfast.   They allowed me to pay for my room with my card but said they can't give me the hotel points.  From here on out I will stick with Marriott hotels.  Done with Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r363944842-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>363944842</t>
+  </si>
+  <si>
+    <t>04/13/2016</t>
+  </si>
+  <si>
+    <t>Regular destination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I travel frequently for work to the Houston area. I have made the Holiday Inn Houston my home away from home. The staff is amazing. From the front desk personnel who are happy to point you to a good restaurant to housekeeping which does a phenomenal job on my room to the restaurant/bar staff which are some of the best I've encountered. I recommend this hotel to anyone who enjoys being treated like more than just another hotel guest. The location is close to a variety of restaurants and there are a couple of shopping centers within a 5-7 minute drive. </t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r363164517-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>363164517</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Amazing stay</t>
+  </si>
+  <si>
+    <t>Fantastic service, beautiful facility, and far above our expectations. The lobby is just so pretty. We stayed here using a reward night, and it was definitely a reward. Cheryl Williams went above and beyond for us. The kids LOVED the indoor pool/spa, and our suite was SWEET. :) Will be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r354218309-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>354218309</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>The staff and the whole hotel</t>
+  </si>
+  <si>
+    <t>Recently I stayed at the Holiday Inn on W Bay Area Blvd. I just had to write and talk about my Excellent experience. From the time I walked in i was greeted with, a lady named Miss Arecia i had just come out a health situation, her empathy, concern and advice was so grateful, from then i felt this was a second home, This whole front desk team was awesome these days you dont find that, sad to say,  I know, well let me rephrase that not just about every department meets the Excellent requirements, Executive housekeeper friendy rooms are emaculate,  Danielle in Food and Beverage, to Kieth at the bar even the the night Auditor Floyd, you see I pay attention when the hospitality industry still maintain a state of Excellence service, You know why when i met the General Manager Miss Cheryl  the leadership showed. Keep up the GREAT work!!!! It pays you guys  wish you all the best, take care Holiday Inn.         D.LMoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Recently I stayed at the Holiday Inn on W Bay Area Blvd. I just had to write and talk about my Excellent experience. From the time I walked in i was greeted with, a lady named Miss Arecia i had just come out a health situation, her empathy, concern and advice was so grateful, from then i felt this was a second home, This whole front desk team was awesome these days you dont find that, sad to say,  I know, well let me rephrase that not just about every department meets the Excellent requirements, Executive housekeeper friendy rooms are emaculate,  Danielle in Food and Beverage, to Kieth at the bar even the the night Auditor Floyd, you see I pay attention when the hospitality industry still maintain a state of Excellence service, You know why when i met the General Manager Miss Cheryl  the leadership showed. Keep up the GREAT work!!!! It pays you guys  wish you all the best, take care Holiday Inn.         D.LMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r350818408-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>350818408</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Work Trip</t>
+  </si>
+  <si>
+    <t>I was recently in Texas for a work trip and this location was perfect! The staff was exceptional and GM Cheryl was so friendly. Loved the bartender Keith and the head chef- she was so welcoming and very easy to talk to. Cannot wait to come back to this location.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I was recently in Texas for a work trip and this location was perfect! The staff was exceptional and GM Cheryl was so friendly. Loved the bartender Keith and the head chef- she was so welcoming and very easy to talk to. Cannot wait to come back to this location.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r343876962-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>343876962</t>
+  </si>
+  <si>
+    <t>01/30/2016</t>
+  </si>
+  <si>
+    <t>Many updates of the hotel since last visit.  Loving it!</t>
+  </si>
+  <si>
+    <t>My wife and I went back to this side of town for to celebrate our anniversary and to have a little weekend getaway.  We chose to stay at Holiday Inn (Webster) again, and we were pleasantly surprised by how many updates this hotel has had since our last visit (about a year ago), from the entrance, to the lobby, guest lounge and the restaurant areas.  The staff is welcoming and accommodating.  The room is spacious, clean, and well equipped/maintained, and most importantly, very comfortable.  We felt well rested during our stay here.  The hotel is located at the busy Bay Area Blvd and lots of restaurants and stores are closer by (we never ran out of things to do here).  This has been one of our favorite hotels around town and we will certainly come back again in the near future.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cheryl W, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded March 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I went back to this side of town for to celebrate our anniversary and to have a little weekend getaway.  We chose to stay at Holiday Inn (Webster) again, and we were pleasantly surprised by how many updates this hotel has had since our last visit (about a year ago), from the entrance, to the lobby, guest lounge and the restaurant areas.  The staff is welcoming and accommodating.  The room is spacious, clean, and well equipped/maintained, and most importantly, very comfortable.  We felt well rested during our stay here.  The hotel is located at the busy Bay Area Blvd and lots of restaurants and stores are closer by (we never ran out of things to do here).  This has been one of our favorite hotels around town and we will certainly come back again in the near future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r328849121-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>328849121</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>A very nice stay here before a cruise out of Bayport cruise port...</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel (in Webster - near Houston) for 3 nights in mid-November before leaving on a cruise (out of "Bayport Cruise Terminal" in "Houston" - more specifically in Pasadena, Texas). The hotel, itself, was great - perfectly clean and comfortable with very friendly and efficient staff. There were several nice restaurants within walking distance of the hotel at different price points.  (We had dinner the first night at a Brazilian steakhouse across the street.) As breakfast was not included in the rate we chose, we paid for our breakfast buffet (just under $10 each) at the hotel restaurant for the first morning only and then just bought groceries for our breakfasts on the remaining two mornings we were there. The hotel breakfast was good. A few tips: this hotel was great for a cruise out of Bayport terminal (we took a taxi - just under $30 - to the cruise terminal, about 15-20 min away). Be warned that there are two cruise terminals in the area (Bayport (for Princess) and Galveston). If cruising out of Galveston, I would have selected a hotel there instead. Also, be warned that George Bush (Houston Intercontinental) airport (IAH) is quite far from Webster (where this Holiday Inn is) and, frankly, quite far from downtown Houston as well. We reserved ahead with "Super Shuttle" (via their website) for the first time ever and were very pleased with the service we got. It...We stayed at this hotel (in Webster - near Houston) for 3 nights in mid-November before leaving on a cruise (out of "Bayport Cruise Terminal" in "Houston" - more specifically in Pasadena, Texas). The hotel, itself, was great - perfectly clean and comfortable with very friendly and efficient staff. There were several nice restaurants within walking distance of the hotel at different price points.  (We had dinner the first night at a Brazilian steakhouse across the street.) As breakfast was not included in the rate we chose, we paid for our breakfast buffet (just under $10 each) at the hotel restaurant for the first morning only and then just bought groceries for our breakfasts on the remaining two mornings we were there. The hotel breakfast was good. A few tips: this hotel was great for a cruise out of Bayport terminal (we took a taxi - just under $30 - to the cruise terminal, about 15-20 min away). Be warned that there are two cruise terminals in the area (Bayport (for Princess) and Galveston). If cruising out of Galveston, I would have selected a hotel there instead. Also, be warned that George Bush (Houston Intercontinental) airport (IAH) is quite far from Webster (where this Holiday Inn is) and, frankly, quite far from downtown Houston as well. We reserved ahead with "Super Shuttle" (via their website) for the first time ever and were very pleased with the service we got. It cost the two of us about $60 (if I recall) to get from the airport to the hotel (in Webster) in the 2.5-hour rush hour traffic. ("Super Shuttle" also goes to Galveston.)  Also be warned that the Houston area is definitely "not walkable". We needed a rental car (the "Enterprise" just across the street from the hotel was awesome and the only one in the area open on a Sunday - from noon-3pm) to explore for a couple of days. We visited: the Houston/Johnson Space Center (the tram tour was awesome), Kemah Boardwalk, and Galveston Island (awesome 1-hour harbor cruise from pier 21 with dozens of dolphins and pelicans) which were all nearby and interesting. We never actually went into Houston, itself, at all! Also, be sure to pay attention to which of Houston's airports you are flying into - George Bush (IAH) or Hobby (apparently not in the safest neighborhood). Doing research on the Houston area ahead of time is vital for smooth transitions while you visit!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel (in Webster - near Houston) for 3 nights in mid-November before leaving on a cruise (out of "Bayport Cruise Terminal" in "Houston" - more specifically in Pasadena, Texas). The hotel, itself, was great - perfectly clean and comfortable with very friendly and efficient staff. There were several nice restaurants within walking distance of the hotel at different price points.  (We had dinner the first night at a Brazilian steakhouse across the street.) As breakfast was not included in the rate we chose, we paid for our breakfast buffet (just under $10 each) at the hotel restaurant for the first morning only and then just bought groceries for our breakfasts on the remaining two mornings we were there. The hotel breakfast was good. A few tips: this hotel was great for a cruise out of Bayport terminal (we took a taxi - just under $30 - to the cruise terminal, about 15-20 min away). Be warned that there are two cruise terminals in the area (Bayport (for Princess) and Galveston). If cruising out of Galveston, I would have selected a hotel there instead. Also, be warned that George Bush (Houston Intercontinental) airport (IAH) is quite far from Webster (where this Holiday Inn is) and, frankly, quite far from downtown Houston as well. We reserved ahead with "Super Shuttle" (via their website) for the first time ever and were very pleased with the service we got. It...We stayed at this hotel (in Webster - near Houston) for 3 nights in mid-November before leaving on a cruise (out of "Bayport Cruise Terminal" in "Houston" - more specifically in Pasadena, Texas). The hotel, itself, was great - perfectly clean and comfortable with very friendly and efficient staff. There were several nice restaurants within walking distance of the hotel at different price points.  (We had dinner the first night at a Brazilian steakhouse across the street.) As breakfast was not included in the rate we chose, we paid for our breakfast buffet (just under $10 each) at the hotel restaurant for the first morning only and then just bought groceries for our breakfasts on the remaining two mornings we were there. The hotel breakfast was good. A few tips: this hotel was great for a cruise out of Bayport terminal (we took a taxi - just under $30 - to the cruise terminal, about 15-20 min away). Be warned that there are two cruise terminals in the area (Bayport (for Princess) and Galveston). If cruising out of Galveston, I would have selected a hotel there instead. Also, be warned that George Bush (Houston Intercontinental) airport (IAH) is quite far from Webster (where this Holiday Inn is) and, frankly, quite far from downtown Houston as well. We reserved ahead with "Super Shuttle" (via their website) for the first time ever and were very pleased with the service we got. It cost the two of us about $60 (if I recall) to get from the airport to the hotel (in Webster) in the 2.5-hour rush hour traffic. ("Super Shuttle" also goes to Galveston.)  Also be warned that the Houston area is definitely "not walkable". We needed a rental car (the "Enterprise" just across the street from the hotel was awesome and the only one in the area open on a Sunday - from noon-3pm) to explore for a couple of days. We visited: the Houston/Johnson Space Center (the tram tour was awesome), Kemah Boardwalk, and Galveston Island (awesome 1-hour harbor cruise from pier 21 with dozens of dolphins and pelicans) which were all nearby and interesting. We never actually went into Houston, itself, at all! Also, be sure to pay attention to which of Houston's airports you are flying into - George Bush (IAH) or Hobby (apparently not in the safest neighborhood). Doing research on the Houston area ahead of time is vital for smooth transitions while you visit!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r328522773-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>328522773</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>A good place in Webster</t>
+  </si>
+  <si>
+    <t>This one is right in the middle of the shopping block, with restaurants up front, and a Starbucks a couple of blocks away.The staff is very nice and helpful. I stayed here for a business conference, and their meeting facilities are also good.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r327497311-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>327497311</t>
+  </si>
+  <si>
+    <t>11/17/2015</t>
+  </si>
+  <si>
+    <t>Modern and fresh - but a couple of issues</t>
+  </si>
+  <si>
+    <t>This is a relatively new and clean Holiday Inn tucked in among a myriad of strip malls in near Houston.  The design reminded me of some of the new 'Euro style' hotels with an open registration desk overlooking a bright and open lobby area that included a large couch in front of a large lobby television.  There is a small restaurant and bar off to the side.  I did not eat there, but they have a full breakfast buffet for $10 and a continental buffet for $8.  Lots of restaurant options nearby.
+The room was a clean, two queen bed room that included a small work desk and a hi-def TV with a good selection of channels.  The bathroom area had two issues to be aware of. First, it is not spacious.  Easily enough room for a single traveler, but a couple or a family might want a bit more room.  Second, the sink area was dimly lit.  It was enough light for a guy to shave, but I thought applying makeup might be a challenge. A female co-worker traveling with me confirmed my suspicions,
+My other complaint about the room was the A/C - it got the room plenty cold but it could not be set to allow the fan to run continuously.  A/C fans cycling on and off wake me up.
+Outside of that it was great - staff was friendly, nice little exercise room (2 treadmills, bike,...This is a relatively new and clean Holiday Inn tucked in among a myriad of strip malls in near Houston.  The design reminded me of some of the new 'Euro style' hotels with an open registration desk overlooking a bright and open lobby area that included a large couch in front of a large lobby television.  There is a small restaurant and bar off to the side.  I did not eat there, but they have a full breakfast buffet for $10 and a continental buffet for $8.  Lots of restaurant options nearby.The room was a clean, two queen bed room that included a small work desk and a hi-def TV with a good selection of channels.  The bathroom area had two issues to be aware of. First, it is not spacious.  Easily enough room for a single traveler, but a couple or a family might want a bit more room.  Second, the sink area was dimly lit.  It was enough light for a guy to shave, but I thought applying makeup might be a challenge. A female co-worker traveling with me confirmed my suspicions,My other complaint about the room was the A/C - it got the room plenty cold but it could not be set to allow the fan to run continuously.  A/C fans cycling on and off wake me up.Outside of that it was great - staff was friendly, nice little exercise room (2 treadmills, bike, elliptical, free weights and a bench, plus a small weight machine, mats). There is also a small indoor pool and hot tub.Co-workers traveling with me complained about noise from other rooms, but it I did not notice as long as the A/C was running!MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a relatively new and clean Holiday Inn tucked in among a myriad of strip malls in near Houston.  The design reminded me of some of the new 'Euro style' hotels with an open registration desk overlooking a bright and open lobby area that included a large couch in front of a large lobby television.  There is a small restaurant and bar off to the side.  I did not eat there, but they have a full breakfast buffet for $10 and a continental buffet for $8.  Lots of restaurant options nearby.
+The room was a clean, two queen bed room that included a small work desk and a hi-def TV with a good selection of channels.  The bathroom area had two issues to be aware of. First, it is not spacious.  Easily enough room for a single traveler, but a couple or a family might want a bit more room.  Second, the sink area was dimly lit.  It was enough light for a guy to shave, but I thought applying makeup might be a challenge. A female co-worker traveling with me confirmed my suspicions,
+My other complaint about the room was the A/C - it got the room plenty cold but it could not be set to allow the fan to run continuously.  A/C fans cycling on and off wake me up.
+Outside of that it was great - staff was friendly, nice little exercise room (2 treadmills, bike,...This is a relatively new and clean Holiday Inn tucked in among a myriad of strip malls in near Houston.  The design reminded me of some of the new 'Euro style' hotels with an open registration desk overlooking a bright and open lobby area that included a large couch in front of a large lobby television.  There is a small restaurant and bar off to the side.  I did not eat there, but they have a full breakfast buffet for $10 and a continental buffet for $8.  Lots of restaurant options nearby.The room was a clean, two queen bed room that included a small work desk and a hi-def TV with a good selection of channels.  The bathroom area had two issues to be aware of. First, it is not spacious.  Easily enough room for a single traveler, but a couple or a family might want a bit more room.  Second, the sink area was dimly lit.  It was enough light for a guy to shave, but I thought applying makeup might be a challenge. A female co-worker traveling with me confirmed my suspicions,My other complaint about the room was the A/C - it got the room plenty cold but it could not be set to allow the fan to run continuously.  A/C fans cycling on and off wake me up.Outside of that it was great - staff was friendly, nice little exercise room (2 treadmills, bike, elliptical, free weights and a bench, plus a small weight machine, mats). There is also a small indoor pool and hot tub.Co-workers traveling with me complained about noise from other rooms, but it I did not notice as long as the A/C was running!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r313396311-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>313396311</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Most Amazing Staff</t>
+  </si>
+  <si>
+    <t>This hotel was phenomenal!  Clean and comfortable; with the most delightful smell.  The location was great, also.  Many restaurants right around it.  My husband and I stayed one night for my birthday and it was the best experience I have ever had!  (And we are frequent weekend travelers.)  I have never been treated with such attentive service!  Cheryl (the GM) made my whole experience fantastic!  She actually broke out and sang Happy Birthday to me!  The staff at this hotel should be the model for training ALL other hotel staff!  Wish we could take them with us everywhere we go!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded September 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was phenomenal!  Clean and comfortable; with the most delightful smell.  The location was great, also.  Many restaurants right around it.  My husband and I stayed one night for my birthday and it was the best experience I have ever had!  (And we are frequent weekend travelers.)  I have never been treated with such attentive service!  Cheryl (the GM) made my whole experience fantastic!  She actually broke out and sang Happy Birthday to me!  The staff at this hotel should be the model for training ALL other hotel staff!  Wish we could take them with us everywhere we go!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r308358872-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>308358872</t>
+  </si>
+  <si>
+    <t>09/08/2015</t>
+  </si>
+  <si>
+    <t>Good business hotel, well maintained and good service</t>
+  </si>
+  <si>
+    <t>Stayed here for one night on business, and everything was good.  Quick check-in, comfortable room, good value, good free wifi and everything in good, clean working order.  Breakfast service was very good and food selection was broad and of good quality.  Only criticism is that for some reason the corridors are freezing cold!  Otherwise, I would strongly recommend this hotel if travelling on business in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for one night on business, and everything was good.  Quick check-in, comfortable room, good value, good free wifi and everything in good, clean working order.  Breakfast service was very good and food selection was broad and of good quality.  Only criticism is that for some reason the corridors are freezing cold!  Otherwise, I would strongly recommend this hotel if travelling on business in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r308211874-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>308211874</t>
+  </si>
+  <si>
+    <t>Amazing Hotel Where Attention to Detail Matters</t>
+  </si>
+  <si>
+    <t>I literally pulled in off the road and grabbed a room on no notice. Check in was smooth. I needed to do some laundry and the reception staff sorted everything for me in an effecient and friendly manner. The really god bit started with dinner which I had in house. The staff were awesome. I have to single the F &amp; B Director Danielle and her staff who made every effort to make my stay enjoyable. This went as far starting a maragarita  competition to see who had the best recipe to personally cooking me my own plate of grits for breakfast after I told them I had tried them for the very first time and thought them awful. The room was clean and comfortable with everything you could need. I cannot recommend this place enough.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I literally pulled in off the road and grabbed a room on no notice. Check in was smooth. I needed to do some laundry and the reception staff sorted everything for me in an effecient and friendly manner. The really god bit started with dinner which I had in house. The staff were awesome. I have to single the F &amp; B Director Danielle and her staff who made every effort to make my stay enjoyable. This went as far starting a maragarita  competition to see who had the best recipe to personally cooking me my own plate of grits for breakfast after I told them I had tried them for the very first time and thought them awful. The room was clean and comfortable with everything you could need. I cannot recommend this place enough.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r297486407-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>297486407</t>
+  </si>
+  <si>
+    <t>08/10/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel and Great Staff</t>
+  </si>
+  <si>
+    <t>We stayed here one night while passing through to Galveston. The price is great compared to what the surrounding offers. The staff was very accommodating and personable! Yvonne and Cheryl was fantastic. No doubt that with those two this hotel will stay on TOP! MoreShow less</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here one night while passing through to Galveston. The price is great compared to what the surrounding offers. The staff was very accommodating and personable! Yvonne and Cheryl was fantastic. No doubt that with those two this hotel will stay on TOP! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r295055486-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>295055486</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>Good option if visiting Galveston</t>
+  </si>
+  <si>
+    <t>Stayed here on the way to Galveston to avoid those high prices. Only 30 minutes to the beach. It was very clean, well-appointed, and staff were very friendly. There were a good number of sit down and take away restaurants within a short walk. This is a nice area too, as opposed to staying up by Hobby. Breakfast was ok, but frankly I expected slightly better given the non-express designation and price. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here on the way to Galveston to avoid those high prices. Only 30 minutes to the beach. It was very clean, well-appointed, and staff were very friendly. There were a good number of sit down and take away restaurants within a short walk. This is a nice area too, as opposed to staying up by Hobby. Breakfast was ok, but frankly I expected slightly better given the non-express designation and price. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r289024443-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>289024443</t>
+  </si>
+  <si>
+    <t>07/14/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and quiet</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn in Webster, Texas before our cruise.  Nice quiet hotel.  We had a good time in the indoor pool, and our niece and her kids came over to swim with us.  It seems the hotel they were staying in down the road was over run with children in the pool.  Our pool was quiet and relaxed.  The hotel is behind several eating places and the kids enjoyed the pizza shop.  We adults enjoyed Chipotle's that was also in front of hotel.  We will visit this hotel again.  Con-the breakfast isn't included so you have to pay to eat in hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn in Webster, Texas before our cruise.  Nice quiet hotel.  We had a good time in the indoor pool, and our niece and her kids came over to swim with us.  It seems the hotel they were staying in down the road was over run with children in the pool.  Our pool was quiet and relaxed.  The hotel is behind several eating places and the kids enjoyed the pizza shop.  We adults enjoyed Chipotle's that was also in front of hotel.  We will visit this hotel again.  Con-the breakfast isn't included so you have to pay to eat in hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r278782905-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>278782905</t>
+  </si>
+  <si>
+    <t>06/08/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and convenient</t>
+  </si>
+  <si>
+    <t>The room was a little hot when we arrived and the AC seemed to only have two settings; too hot or too cold.  The bed was comfortable and the room was clean when we arrived but housekeeping was a little spotty.  The first day we never saw them,  The 2nd day they came after we placed a request.  The staff was friendly but service in the restaurant was snail slow.  But even that was faster than the internet service which seemed to bog down regularly.  But the worst thing was the smoking area right beside the main entrance.  You couldn't come or go without walking through a cloud of cigarette smoke.  There should be someplace outback that smokers could smoke without inconveniencing everyone else.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>The room was a little hot when we arrived and the AC seemed to only have two settings; too hot or too cold.  The bed was comfortable and the room was clean when we arrived but housekeeping was a little spotty.  The first day we never saw them,  The 2nd day they came after we placed a request.  The staff was friendly but service in the restaurant was snail slow.  But even that was faster than the internet service which seemed to bog down regularly.  But the worst thing was the smoking area right beside the main entrance.  You couldn't come or go without walking through a cloud of cigarette smoke.  There should be someplace outback that smokers could smoke without inconveniencing everyone else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r278467404-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>278467404</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Wasn't sure what to expect but...</t>
+  </si>
+  <si>
+    <t>In Houston on business and needed a hotel near Clearlake.  The hotel where my associates stayed was full so booked in here.  I never feel like I know what you're going to get at an HI these days, but HI Webster was excellent.  Room was great, clean.  Well located for where I was going and not too far from Hobby airport.  Didn't eat there but wouldn't have hesitated.  Would recommend.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded June 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 8, 2015</t>
+  </si>
+  <si>
+    <t>In Houston on business and needed a hotel near Clearlake.  The hotel where my associates stayed was full so booked in here.  I never feel like I know what you're going to get at an HI these days, but HI Webster was excellent.  Room was great, clean.  Well located for where I was going and not too far from Hobby airport.  Didn't eat there but wouldn't have hesitated.  Would recommend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r275984738-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>275984738</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>Handy for Space Centre</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here after visiting family in Texas. We chose this hotel as it is close to the Space Centre, which we planned to visit, and Galveston, a place I wanted to visit. I used my Priority Club points. As soon as we checked in, we were advised we had been upgraded to a larger room. The welcome we received was warm and friendly and this friendliness continued for the 3 nights we were there. The restaurant staff were also very friendly and efficient. There are lots of restaurants in the area as the menu in the hotel restaurant is quite limited. Overall, this is an excellent place to stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded June 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here after visiting family in Texas. We chose this hotel as it is close to the Space Centre, which we planned to visit, and Galveston, a place I wanted to visit. I used my Priority Club points. As soon as we checked in, we were advised we had been upgraded to a larger room. The welcome we received was warm and friendly and this friendliness continued for the 3 nights we were there. The restaurant staff were also very friendly and efficient. There are lots of restaurants in the area as the menu in the hotel restaurant is quite limited. Overall, this is an excellent place to stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r274191167-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>274191167</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>I called from the road and they let me check in early... instant points for that!  Very friendly staff.  Room was spacious and comfortable.  Fast free wifi.  Nice location near everything.  Very clean zero issues.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded May 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2015</t>
+  </si>
+  <si>
+    <t>I called from the road and they let me check in early... instant points for that!  Very friendly staff.  Room was spacious and comfortable.  Fast free wifi.  Nice location near everything.  Very clean zero issues.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r271519085-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>271519085</t>
+  </si>
+  <si>
+    <t>05/12/2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn Bay Area Blvd</t>
+  </si>
+  <si>
+    <t>This was one of those pleasant travel experiences.  The hotel was much nicer than I was expecting.  The lobby is large with a full service restaurant available for breakfast and dinner.  There are other dining options within a one block walk at the strip mall in front of the hotel.  The room was clean, comfortable and enjoyable.  Even on the top floor the shower pressure was strong.  Surprisingly good wi-fi for the computer.  The only cons is the traffic on Bay Area Boulevard but that exists throughout the entire Houston area.   This stay was definitely a bright spot to include cheerful and helpful staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was one of those pleasant travel experiences.  The hotel was much nicer than I was expecting.  The lobby is large with a full service restaurant available for breakfast and dinner.  There are other dining options within a one block walk at the strip mall in front of the hotel.  The room was clean, comfortable and enjoyable.  Even on the top floor the shower pressure was strong.  Surprisingly good wi-fi for the computer.  The only cons is the traffic on Bay Area Boulevard but that exists throughout the entire Houston area.   This stay was definitely a bright spot to include cheerful and helpful staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r270976674-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>270976674</t>
+  </si>
+  <si>
+    <t>05/09/2015</t>
+  </si>
+  <si>
+    <t>Comfortable Stay</t>
+  </si>
+  <si>
+    <t>Very friendly front desk! Nice large comfortable room!  A group of us going on a cruise stayed @ the Holiday Inn. Comfortable small lounge serving drinks. Had a great breakfast (not included).  Room service was very quick.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2015</t>
+  </si>
+  <si>
+    <t>Very friendly front desk! Nice large comfortable room!  A group of us going on a cruise stayed @ the Holiday Inn. Comfortable small lounge serving drinks. Had a great breakfast (not included).  Room service was very quick.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r264788711-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>264788711</t>
+  </si>
+  <si>
+    <t>04/09/2015</t>
+  </si>
+  <si>
+    <t>Hidden Gem</t>
+  </si>
+  <si>
+    <t>I say hidden gem because this hotel is hidden behind a shopping center and I am so glad I found it. This place is awesome. Our suite was so big, so clean. The bed was very comfortable. The pool was great. The hotel is beautifully decorated and immaculately clean. I couldn't have asked for better. The kids did not want to leave.  I would definitely stay here again. Highly recommend this Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>I say hidden gem because this hotel is hidden behind a shopping center and I am so glad I found it. This place is awesome. Our suite was so big, so clean. The bed was very comfortable. The pool was great. The hotel is beautifully decorated and immaculately clean. I couldn't have asked for better. The kids did not want to leave.  I would definitely stay here again. Highly recommend this Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r263141819-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>263141819</t>
+  </si>
+  <si>
+    <t>04/01/2015</t>
+  </si>
+  <si>
+    <t>Pleased with Our Stay</t>
+  </si>
+  <si>
+    <t>Very clean and the suites are quite big.  The location couldn't be better.  Close to tons of restaurants.  Baybrook Mall is close too.  Best part, Nasa museum was super close.   Super friendly staff. AC a little loud though.  Great breakfast and restaurant. Would stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded April 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2015</t>
+  </si>
+  <si>
+    <t>Very clean and the suites are quite big.  The location couldn't be better.  Close to tons of restaurants.  Baybrook Mall is close too.  Best part, Nasa museum was super close.   Super friendly staff. AC a little loud though.  Great breakfast and restaurant. Would stay here again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r262834566-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>262834566</t>
+  </si>
+  <si>
+    <t>03/31/2015</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and convenient</t>
+  </si>
+  <si>
+    <t>This is my first stay in this Holiday Inn and I can guarantee I will stay here every time I have work in the area. The facility was very clean, the people were great and the room comfortable. The bed was one of the most comfortable I’ve had in a hotel. There a many dining choices within walking distance.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is my first stay in this Holiday Inn and I can guarantee I will stay here every time I have work in the area. The facility was very clean, the people were great and the room comfortable. The bed was one of the most comfortable I’ve had in a hotel. There a many dining choices within walking distance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r259325891-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>259325891</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Awesome for families awesome price</t>
+  </si>
+  <si>
+    <t>Absolutely happy with this hotel. For two nights I paid 268.  There is a heated indoor pool which my kids loved.  Kids under 12 can eat breakfast and dinner free in the restaurant.   The food is really tasty the fruit that came with my kids' plates was very fresh.  The rooms are clean and customer service is great. I will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Absolutely happy with this hotel. For two nights I paid 268.  There is a heated indoor pool which my kids loved.  Kids under 12 can eat breakfast and dinner free in the restaurant.   The food is really tasty the fruit that came with my kids' plates was very fresh.  The rooms are clean and customer service is great. I will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r258484884-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>258484884</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel!</t>
+  </si>
+  <si>
+    <t>We had a great time at the Holiday Inn Webster.   We checked into a king size room. The hotel looks very modern and clean.  The room was large and comfortable.   All the staff was courteous and friendly.   Many restaurants are close by.  We would definitely stay there again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>We had a great time at the Holiday Inn Webster.   We checked into a king size room. The hotel looks very modern and clean.  The room was large and comfortable.   All the staff was courteous and friendly.   Many restaurants are close by.  We would definitely stay there again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r256974561-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>256974561</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>Very nice, convent to Galveston and Space Center</t>
+  </si>
+  <si>
+    <t>Very nice hotel with excellent staff!  Convenient location to area attractions. Room was very nice, clean, and plenty of room. Staff was great, had a flight cancelled and ended up in Houston...they held a room until I arrived from airport. Very nice breakfast area!MoreShow less</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 2, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel with excellent staff!  Convenient location to area attractions. Room was very nice, clean, and plenty of room. Staff was great, had a flight cancelled and ended up in Houston...they held a room until I arrived from airport. Very nice breakfast area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r251313128-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>251313128</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>A small hotel but ver clean, nice rooms, good internet access and all the facilities. The breakfast its very good. Very good for a work travel , i spent a week there and i felt in home. The only bad thing was to get a taxi i waited like an 1 for oneMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded January 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2015</t>
+  </si>
+  <si>
+    <t>A small hotel but ver clean, nice rooms, good internet access and all the facilities. The breakfast its very good. Very good for a work travel , i spent a week there and i felt in home. The only bad thing was to get a taxi i waited like an 1 for oneMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r250999462-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>250999462</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel in a convenient location!</t>
+  </si>
+  <si>
+    <t>This is our first time staying at Holiday Inn and we were pleasantly surprised!  The hotel looks very trendy and modern (I believe it is recently remodeled), and the staff is friendly and helpful!  The room is clean and we love the bed, so comfy!!!   The hotel is located to many attractions in Clear Lake/NASA area, close to Baybrook Mall, Kemah, and and it is close to I-45, which makes it easy for us to drive to Galveston or Houston.  We certainly recommend it!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded January 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 27, 2015</t>
+  </si>
+  <si>
+    <t>This is our first time staying at Holiday Inn and we were pleasantly surprised!  The hotel looks very trendy and modern (I believe it is recently remodeled), and the staff is friendly and helpful!  The room is clean and we love the bed, so comfy!!!   The hotel is located to many attractions in Clear Lake/NASA area, close to Baybrook Mall, Kemah, and and it is close to I-45, which makes it easy for us to drive to Galveston or Houston.  We certainly recommend it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r248620245-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>248620245</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>Great For Business</t>
+  </si>
+  <si>
+    <t>My office is located off of Bay Area Blvd. We have a corporate account with Holiday Inn. This was my first time staying here. After finding the place (tucked back in behind two strip malls) I finally arrived. The guy at check in was nice/friendly, however not overly excited about his job. The room was spacious, clean &amp; updated. Wireless internet worked well. The following morning at 6:30am I went to breakfast in the small restaurant they have in the lobby. There were several people already and one lady was running around like a chicken with its head cut off trying to serve them. When one lady tried to settle her bill with a credit card she was informed they don't take credit cards!!  What business in their own right mind doesn't take credit cards???  Who carries cash any more. You need to fix that Holiday Inn and get this poor lady some help. The rest of my stay was uneventful, except for the regular rat race routine at breakfast each morning. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Jamie C, Director of Sales at Holiday Inn Houston - Webster, responded to this reviewResponded January 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2015</t>
+  </si>
+  <si>
+    <t>My office is located off of Bay Area Blvd. We have a corporate account with Holiday Inn. This was my first time staying here. After finding the place (tucked back in behind two strip malls) I finally arrived. The guy at check in was nice/friendly, however not overly excited about his job. The room was spacious, clean &amp; updated. Wireless internet worked well. The following morning at 6:30am I went to breakfast in the small restaurant they have in the lobby. There were several people already and one lady was running around like a chicken with its head cut off trying to serve them. When one lady tried to settle her bill with a credit card she was informed they don't take credit cards!!  What business in their own right mind doesn't take credit cards???  Who carries cash any more. You need to fix that Holiday Inn and get this poor lady some help. The rest of my stay was uneventful, except for the regular rat race routine at breakfast each morning. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r240417536-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>240417536</t>
+  </si>
+  <si>
+    <t>11/18/2014</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>When I opened the door to our room I was expecting a standard room. What I saw was a suite without being charged for one. It was awesome. The pool was great. The floors where quiet. The neighbors were quiet. We slept great. We really enjoyed our stay and will be staying again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>When I opened the door to our room I was expecting a standard room. What I saw was a suite without being charged for one. It was awesome. The pool was great. The floors where quiet. The neighbors were quiet. We slept great. We really enjoyed our stay and will be staying again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r236849274-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>236849274</t>
+  </si>
+  <si>
+    <t>10/28/2014</t>
+  </si>
+  <si>
+    <t>Are you serious?</t>
+  </si>
+  <si>
+    <t>The parking lot was packed and we barely found a place to park.  We got inside and there was not a clerk in sight and there was not even a sign, note or anything letting us know someone was on the property.  Granted it was night but there should have been some sort of sign.  By the time the clerk got to the front desk there were 5 families waiting to check-in.  I gave the clerk my rewards card and it said invalid.  Don't know what that was all about.  She even made the comment that I had a new card.  I asked if my night's stay had been credit to my card and she said since we had been waiting a long time already and she was busy that she would call up to my room and let me know because she had to go into another system, etc.  Well, I never received a call from anyone at the front desk.  Room was nice, beds were comfortable and had a great night sleep.  The shower was awesome as well.  I noticed that the charge on my credit card was different from the receipt that was placed under my door during the middle of the night.  I 'm beginning to think they place some sort of deposit on there for incidentals, etc.  It wasn't an issue but I believe this should be mentioned if this occurs all the time.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded November 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2014</t>
+  </si>
+  <si>
+    <t>The parking lot was packed and we barely found a place to park.  We got inside and there was not a clerk in sight and there was not even a sign, note or anything letting us know someone was on the property.  Granted it was night but there should have been some sort of sign.  By the time the clerk got to the front desk there were 5 families waiting to check-in.  I gave the clerk my rewards card and it said invalid.  Don't know what that was all about.  She even made the comment that I had a new card.  I asked if my night's stay had been credit to my card and she said since we had been waiting a long time already and she was busy that she would call up to my room and let me know because she had to go into another system, etc.  Well, I never received a call from anyone at the front desk.  Room was nice, beds were comfortable and had a great night sleep.  The shower was awesome as well.  I noticed that the charge on my credit card was different from the receipt that was placed under my door during the middle of the night.  I 'm beginning to think they place some sort of deposit on there for incidentals, etc.  It wasn't an issue but I believe this should be mentioned if this occurs all the time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r234792043-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>234792043</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Probably the best value hotel we have used during our stay in the US</t>
+  </si>
+  <si>
+    <t>The modern hotel is ideally located to enable you to visit all parts South of Houston. It is located off the main road so does not suffer from traffic noise. The staff are all extremely friendly, and helpful. As part of the service the hotel provided free cookies from around 5.00pm and also free apertisers on a number of days in the week.The room was very clean and spacious with little noise from a/c and beds are comfortable. Our room had a walk in shower, which was ideal. Plenty of places to eat locally covering all types of taste and also a shopping mall is close by. Importantly for us you feel completely safe in the whole area. We were so busy we never had time to try out the indoor pool or the the hot spa tub.MoreShow less</t>
+  </si>
+  <si>
+    <t>The modern hotel is ideally located to enable you to visit all parts South of Houston. It is located off the main road so does not suffer from traffic noise. The staff are all extremely friendly, and helpful. As part of the service the hotel provided free cookies from around 5.00pm and also free apertisers on a number of days in the week.The room was very clean and spacious with little noise from a/c and beds are comfortable. Our room had a walk in shower, which was ideal. Plenty of places to eat locally covering all types of taste and also a shopping mall is close by. Importantly for us you feel completely safe in the whole area. We were so busy we never had time to try out the indoor pool or the the hot spa tub.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r230790131-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>230790131</t>
+  </si>
+  <si>
+    <t>09/24/2014</t>
+  </si>
+  <si>
+    <t>Location and Food</t>
+  </si>
+  <si>
+    <t>Holiday Inn is centrally located to a lot of attractions. A few minutes drive to NASA's Johnson Space Center, Boardwalk, and about 45 minutes from Galveston Island. There's plenty of good restaurants which is practically walking distance from the hotel. The hotel itself is very clean and comfortable. The only problem I had was when I went down for breakfast and forgot to bring my breakfast ticket. They asked me to pay for it, in spite of showing them my room key. Can't believe they could do that. I was in a hurry, so I just went out the hotel and look for another place to eat. Otherwise, the place is okay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Holiday Inn is centrally located to a lot of attractions. A few minutes drive to NASA's Johnson Space Center, Boardwalk, and about 45 minutes from Galveston Island. There's plenty of good restaurants which is practically walking distance from the hotel. The hotel itself is very clean and comfortable. The only problem I had was when I went down for breakfast and forgot to bring my breakfast ticket. They asked me to pay for it, in spite of showing them my room key. Can't believe they could do that. I was in a hurry, so I just went out the hotel and look for another place to eat. Otherwise, the place is okay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r230740207-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>230740207</t>
+  </si>
+  <si>
+    <t>Perfect Trip!</t>
+  </si>
+  <si>
+    <t>Beyond perfect trip, food was great, priced very reasonably and the best ever service!!!!Very well located central to all the places we were to visit.  We could not be more pleased with our stay (over a week) and will certainly use this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2014</t>
+  </si>
+  <si>
+    <t>Beyond perfect trip, food was great, priced very reasonably and the best ever service!!!!Very well located central to all the places we were to visit.  We could not be more pleased with our stay (over a week) and will certainly use this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r229322747-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>229322747</t>
+  </si>
+  <si>
+    <t>09/16/2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel this past weekend for a family trip and it turned out to be a great choice.  The front desk service was great -  friendly and efficient (not a fan of waiting in line with 2 kids).  Most importantly the public areas and rooms were clean, bed was comfortable, and water pressure was good!  Our room was kept at a cool temperature when we arrived so it felt great to get out of the heat.  We got a suite so that we could stay in one side and put our toddler to bed on her own on the other side and it worked out well.  We also decided to eat in at the restaurant downstairs which turned out to be the best decision of the night as our waiter was super friendly and the food was affordable and not bad at all.  There were also plenty of other food choices just outside but we stayed in because of the rain and the hassle of traveling with kids.  Would def come again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel this past weekend for a family trip and it turned out to be a great choice.  The front desk service was great -  friendly and efficient (not a fan of waiting in line with 2 kids).  Most importantly the public areas and rooms were clean, bed was comfortable, and water pressure was good!  Our room was kept at a cool temperature when we arrived so it felt great to get out of the heat.  We got a suite so that we could stay in one side and put our toddler to bed on her own on the other side and it worked out well.  We also decided to eat in at the restaurant downstairs which turned out to be the best decision of the night as our waiter was super friendly and the food was affordable and not bad at all.  There were also plenty of other food choices just outside but we stayed in because of the rain and the hassle of traveling with kids.  Would def come again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r219355609-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>219355609</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>We got 2 King rooms and was very impressed.  Rooms were spacious and welcoming. Beds were amazing. AC worked great.  Even the stairwell was nice ha!   This place is about 30 mins from Galveston but the price made it worth it.  Its really close to the space museum.  We will be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded August 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2014</t>
+  </si>
+  <si>
+    <t>We got 2 King rooms and was very impressed.  Rooms were spacious and welcoming. Beds were amazing. AC worked great.  Even the stairwell was nice ha!   This place is about 30 mins from Galveston but the price made it worth it.  Its really close to the space museum.  We will be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r218967237-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>218967237</t>
+  </si>
+  <si>
+    <t>08/01/2014</t>
+  </si>
+  <si>
+    <t>Great Extended Stay With 4 Kids</t>
+  </si>
+  <si>
+    <t>The Assistant Manager and staff did everything they could to make our 2.5 week stay as pleasant as possible with 4 kids. From putting us in a room near the laundry to helping at the breakfast bar in the morning and treating us with extra care at dinner in the evening we always felt like we were at a high-end hotel -- despite our 4 kids (ages 7,6, 3 and 3 months). Thanks again to Stephanie E. (restaurant server) who was wonderful to our kids and always courteous, professional, and helpful. We used the laundry, business center, indoor pool and ate many meals as the restaurant (kids eat free - even 3!). Highly recommended restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>The Assistant Manager and staff did everything they could to make our 2.5 week stay as pleasant as possible with 4 kids. From putting us in a room near the laundry to helping at the breakfast bar in the morning and treating us with extra care at dinner in the evening we always felt like we were at a high-end hotel -- despite our 4 kids (ages 7,6, 3 and 3 months). Thanks again to Stephanie E. (restaurant server) who was wonderful to our kids and always courteous, professional, and helpful. We used the laundry, business center, indoor pool and ate many meals as the restaurant (kids eat free - even 3!). Highly recommended restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r218098494-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>218098494</t>
+  </si>
+  <si>
+    <t>07/28/2014</t>
+  </si>
+  <si>
+    <t>Absolutely,  wonderful!</t>
+  </si>
+  <si>
+    <t>From the moment we checked in, we were treated with first class service. Everyone from housekeeping to management, was very eager to make sure our stay was comfortable and enjoyable. The pool, workout, and restaurant areas were super clean, well staffed and well maintained. Finally, our upgraded King Suite was the "icing on the cake." Very spacious. The kids enjoyed their own section of the suite, which included a large sofa bed, sitting area, and tv; all separated by a door which led to the bedroom with the most comfortable king size bed and sitting area. I highly recommend it for vacationing family. Hotel was conveniently located to major attractions(NASA, Kehmah Boardwalk, etc.)Thank you Holiday Inn Houston-Webster, we will definitely will be returning!MoreShow less</t>
+  </si>
+  <si>
+    <t>From the moment we checked in, we were treated with first class service. Everyone from housekeeping to management, was very eager to make sure our stay was comfortable and enjoyable. The pool, workout, and restaurant areas were super clean, well staffed and well maintained. Finally, our upgraded King Suite was the "icing on the cake." Very spacious. The kids enjoyed their own section of the suite, which included a large sofa bed, sitting area, and tv; all separated by a door which led to the bedroom with the most comfortable king size bed and sitting area. I highly recommend it for vacationing family. Hotel was conveniently located to major attractions(NASA, Kehmah Boardwalk, etc.)Thank you Holiday Inn Houston-Webster, we will definitely will be returning!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r217519806-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>217519806</t>
+  </si>
+  <si>
+    <t>07/25/2014</t>
+  </si>
+  <si>
+    <t>Hotel is Fine, Noisy School Kids During this Stay</t>
+  </si>
+  <si>
+    <t>We stayed at this property in June.  The hotel is very nice and sets back from the interstate which minimizes the road noise.  Property is very clean and well maintained and the staff was friendly.  I would stay here again because the hotel is nice.  The only problem we experienced were school children guests who apparently were not taught basic hotel etiquette prior to arrival.  The hotel was aware of this group’s arrival date and had delivered letters to the other guests advising them if they experienced noise issues to contact the front desk.  After repeated calls to complain of slamming doors and screaming kids running in the halls, the hotel apparently was able to restore order.  It was after midnight when we finally had quiet.  I hope the hotel management learned from this experience and will set hotel expectations for other group events.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this property in June.  The hotel is very nice and sets back from the interstate which minimizes the road noise.  Property is very clean and well maintained and the staff was friendly.  I would stay here again because the hotel is nice.  The only problem we experienced were school children guests who apparently were not taught basic hotel etiquette prior to arrival.  The hotel was aware of this group’s arrival date and had delivered letters to the other guests advising them if they experienced noise issues to contact the front desk.  After repeated calls to complain of slamming doors and screaming kids running in the halls, the hotel apparently was able to restore order.  It was after midnight when we finally had quiet.  I hope the hotel management learned from this experience and will set hotel expectations for other group events.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r214318176-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>214318176</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>WARNING! WARNING!First a warning and then the review.  If you are given room 412 to stay in please be aware that when you get of of the elevator on the 4th floor and proceed toward room 412 the even numbered room are on the right and the odd numbered rooms are on the left.  Now we are walking down the hall past 418, then 416, then 414, then 410.  Whoa how did I miss 412?  Turn around go past 410 and the next room is 414.  Wife looks on the other side of the hall and there is 412.  It is the only even numbered room on that side of the hall.  You have been warned.This is a really great place to stay and room 412 was one of the best hotel rooms I have ever stayed in.  Very spacious room that could easily handle visitors if need be.  King size bed was very comfortable, very clean especially the bathroom and seemed to be well insulated as we heard no noise what so ever.  Staff was very efficient (except being able to explain the ever room on the odd side) and we will definitely stay here again when we come to this area.  Good location, convenient to local attractions, shopping and restaurants.  Checking the price here and other hotels in the area, this is definitely to the on to book your stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded July 13, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2014</t>
+  </si>
+  <si>
+    <t>WARNING! WARNING!First a warning and then the review.  If you are given room 412 to stay in please be aware that when you get of of the elevator on the 4th floor and proceed toward room 412 the even numbered room are on the right and the odd numbered rooms are on the left.  Now we are walking down the hall past 418, then 416, then 414, then 410.  Whoa how did I miss 412?  Turn around go past 410 and the next room is 414.  Wife looks on the other side of the hall and there is 412.  It is the only even numbered room on that side of the hall.  You have been warned.This is a really great place to stay and room 412 was one of the best hotel rooms I have ever stayed in.  Very spacious room that could easily handle visitors if need be.  King size bed was very comfortable, very clean especially the bathroom and seemed to be well insulated as we heard no noise what so ever.  Staff was very efficient (except being able to explain the ever room on the odd side) and we will definitely stay here again when we come to this area.  Good location, convenient to local attractions, shopping and restaurants.  Checking the price here and other hotels in the area, this is definitely to the on to book your stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r214300344-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>214300344</t>
+  </si>
+  <si>
+    <t>Hector</t>
+  </si>
+  <si>
+    <t>We thought the hotel was nice. There was an mildew odor in our room which does take away from the experience.  I did think the staff was really great and very friendly.  I'd rate the staff with a 5.  It's unfortunate that the smell in our room took away from the stay because it was otherwise a well kept up hotel.  One person who really stuck out was Hector.  He was our server for breakfast all 4 days.  He was not only kind but incredibly helpful and accommodating to us. We were running late so he quickly got us to go boxes so we could grab a muffin and coffee and rush out.  I liked him very much.  I'd give him a 5 PLUS star rating.  Just a kind and nice gentleman.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded July 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2014</t>
+  </si>
+  <si>
+    <t>We thought the hotel was nice. There was an mildew odor in our room which does take away from the experience.  I did think the staff was really great and very friendly.  I'd rate the staff with a 5.  It's unfortunate that the smell in our room took away from the stay because it was otherwise a well kept up hotel.  One person who really stuck out was Hector.  He was our server for breakfast all 4 days.  He was not only kind but incredibly helpful and accommodating to us. We were running late so he quickly got us to go boxes so we could grab a muffin and coffee and rush out.  I liked him very much.  I'd give him a 5 PLUS star rating.  Just a kind and nice gentleman.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r209404996-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>209404996</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>Great Location, Comfortable Rooms, Great Staff</t>
+  </si>
+  <si>
+    <t>Spent a week here for business.  I was in room 201.  It is an outstanding room.  The room was new and well furnished.  The bed was comfortable and had a selection of 2 firm and 2 soft pillows on the bed.  Lighting was good and they have both wired and wireless Internet access.  The cooling system worked fine.  The room has a small refrigerator and microwave which is a great touch.  The bathroom was large (for hotel) standards and there was plenty of hot water.  Water pressure was average but sufficient. Check-in and check-out were fast and easy.  They have a small sundry shop with food, drinks, and other items.  There is a great laundry facility on the second floor.  The pool is small and indoors and was in use by many families that looked like they were having fun.  They have a good sized spa but the treadmills were out of order and had been for many weeks.  I find that to be an issue if it weren’t summer.There are many restaurants within a 10 minute walk and several in the same parking area.  There is a mall and Target within 5 minute drive with shopping and additional restaurants.  You are close to I-45.  Great location, friendly staff, comfortable rooms.  Great deal for the price I paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Spent a week here for business.  I was in room 201.  It is an outstanding room.  The room was new and well furnished.  The bed was comfortable and had a selection of 2 firm and 2 soft pillows on the bed.  Lighting was good and they have both wired and wireless Internet access.  The cooling system worked fine.  The room has a small refrigerator and microwave which is a great touch.  The bathroom was large (for hotel) standards and there was plenty of hot water.  Water pressure was average but sufficient. Check-in and check-out were fast and easy.  They have a small sundry shop with food, drinks, and other items.  There is a great laundry facility on the second floor.  The pool is small and indoors and was in use by many families that looked like they were having fun.  They have a good sized spa but the treadmills were out of order and had been for many weeks.  I find that to be an issue if it weren’t summer.There are many restaurants within a 10 minute walk and several in the same parking area.  There is a mall and Target within 5 minute drive with shopping and additional restaurants.  You are close to I-45.  Great location, friendly staff, comfortable rooms.  Great deal for the price I paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r208082891-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>208082891</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Good location - poor service staff</t>
+  </si>
+  <si>
+    <t>We recently stayed here for four nights.  While the location was convenient to our needs, the service staff leaves a lot to be desired.  On two of the days that we stayed here, getting the room cleaned was an ordeal.  The first day, bathroom linens were not provided, which necessitated a trip to the front desk.  The second day, we returned to our room at 3:15 PM and the room had not been cleaned.  An hour after requesting that the room be cleaned, nothing had been done.  After another trip to the front desk,  the cleaning crew started to clean our room, but did not finish the job.  Finally, I went and found a cleaning supervisor and made them come and finish the room at 5:45 PM.  I don't understand why management could not have the rooms of overstaying guests cleaned before rooms that were obviously going to be vacant for the night.  The hotel had maybe a dozen guests that night.  We will not return to this hotel for this reason.  Management needs to do a better job of supervising their staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded June 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed here for four nights.  While the location was convenient to our needs, the service staff leaves a lot to be desired.  On two of the days that we stayed here, getting the room cleaned was an ordeal.  The first day, bathroom linens were not provided, which necessitated a trip to the front desk.  The second day, we returned to our room at 3:15 PM and the room had not been cleaned.  An hour after requesting that the room be cleaned, nothing had been done.  After another trip to the front desk,  the cleaning crew started to clean our room, but did not finish the job.  Finally, I went and found a cleaning supervisor and made them come and finish the room at 5:45 PM.  I don't understand why management could not have the rooms of overstaying guests cleaned before rooms that were obviously going to be vacant for the night.  The hotel had maybe a dozen guests that night.  We will not return to this hotel for this reason.  Management needs to do a better job of supervising their staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r207002787-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>207002787</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Great quality of service</t>
+  </si>
+  <si>
+    <t>Very often we use this hotel because We like the cleanliness of the rooms and specially the attention given by the employees.Maria is always willing to help us when we need directions.Thanks Maria keep up the good work.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2014</t>
+  </si>
+  <si>
+    <t>Very often we use this hotel because We like the cleanliness of the rooms and specially the attention given by the employees.Maria is always willing to help us when we need directions.Thanks Maria keep up the good work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r201712415-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>201712415</t>
+  </si>
+  <si>
+    <t>04/18/2014</t>
+  </si>
+  <si>
+    <t>Was a good stay</t>
+  </si>
+  <si>
+    <t>My sister and I arrived into Houston on a very rainy late afternoon. After getting our rental, we tried to use our GPS near the airport and couldn't get a signal. So, we called the hotel and was happy to get simple directions. After driving in 2 hours of traffic, we finally arrived at hotel and were greeted with warm cookies after running from our cars trying to dodge really cold rain. What a nice welcome.
+We went to our room which was decent. There were just a couple of minor cleaning issues but other than that it was fine. For the life of us, we couldn't figure out how to get the heat to work. While we were done trying to figure it out, we got a call from the front desk asking us how we found our room. Great timing! I told him about the heat and gave us a tip which worked.
+The next morning, we decided to have the buffet lunch for $9.95 since it included everything. The food was good for buffet food but I guess we came late because there wasn't much left. I was glad that we were able to order our eggs anyway we wanted; even an omelet. The waitress was very nice and accommodating. I only gave an average score because of the cleanliness of the room and the difficulty of the heating system. Other than that it was a really...My sister and I arrived into Houston on a very rainy late afternoon. After getting our rental, we tried to use our GPS near the airport and couldn't get a signal. So, we called the hotel and was happy to get simple directions. After driving in 2 hours of traffic, we finally arrived at hotel and were greeted with warm cookies after running from our cars trying to dodge really cold rain. What a nice welcome.We went to our room which was decent. There were just a couple of minor cleaning issues but other than that it was fine. For the life of us, we couldn't figure out how to get the heat to work. While we were done trying to figure it out, we got a call from the front desk asking us how we found our room. Great timing! I told him about the heat and gave us a tip which worked.The next morning, we decided to have the buffet lunch for $9.95 since it included everything. The food was good for buffet food but I guess we came late because there wasn't much left. I was glad that we were able to order our eggs anyway we wanted; even an omelet. The waitress was very nice and accommodating. I only gave an average score because of the cleanliness of the room and the difficulty of the heating system. Other than that it was a really nice stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded April 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2014</t>
+  </si>
+  <si>
+    <t>My sister and I arrived into Houston on a very rainy late afternoon. After getting our rental, we tried to use our GPS near the airport and couldn't get a signal. So, we called the hotel and was happy to get simple directions. After driving in 2 hours of traffic, we finally arrived at hotel and were greeted with warm cookies after running from our cars trying to dodge really cold rain. What a nice welcome.
+We went to our room which was decent. There were just a couple of minor cleaning issues but other than that it was fine. For the life of us, we couldn't figure out how to get the heat to work. While we were done trying to figure it out, we got a call from the front desk asking us how we found our room. Great timing! I told him about the heat and gave us a tip which worked.
+The next morning, we decided to have the buffet lunch for $9.95 since it included everything. The food was good for buffet food but I guess we came late because there wasn't much left. I was glad that we were able to order our eggs anyway we wanted; even an omelet. The waitress was very nice and accommodating. I only gave an average score because of the cleanliness of the room and the difficulty of the heating system. Other than that it was a really...My sister and I arrived into Houston on a very rainy late afternoon. After getting our rental, we tried to use our GPS near the airport and couldn't get a signal. So, we called the hotel and was happy to get simple directions. After driving in 2 hours of traffic, we finally arrived at hotel and were greeted with warm cookies after running from our cars trying to dodge really cold rain. What a nice welcome.We went to our room which was decent. There were just a couple of minor cleaning issues but other than that it was fine. For the life of us, we couldn't figure out how to get the heat to work. While we were done trying to figure it out, we got a call from the front desk asking us how we found our room. Great timing! I told him about the heat and gave us a tip which worked.The next morning, we decided to have the buffet lunch for $9.95 since it included everything. The food was good for buffet food but I guess we came late because there wasn't much left. I was glad that we were able to order our eggs anyway we wanted; even an omelet. The waitress was very nice and accommodating. I only gave an average score because of the cleanliness of the room and the difficulty of the heating system. Other than that it was a really nice stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r199821935-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>199821935</t>
+  </si>
+  <si>
+    <t>04/03/2014</t>
+  </si>
+  <si>
+    <t>Couldn't have been a better experience!</t>
+  </si>
+  <si>
+    <t>Excellent hospitality and professionalism of staff and accommodations were impeccable.  It was better than a home away from home....peace and quiet)!  The hotel restaurant  had an excellent breakfast menu, great coffee and an attentive staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded April 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2014</t>
+  </si>
+  <si>
+    <t>Excellent hospitality and professionalism of staff and accommodations were impeccable.  It was better than a home away from home....peace and quiet)!  The hotel restaurant  had an excellent breakfast menu, great coffee and an attentive staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r193346728-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>193346728</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>Room change</t>
+  </si>
+  <si>
+    <t>Upon check-in we got a room that just REEKED of smoke. You know the feeling when you get that kick in the face as you open the door.So, walk back to the front desk with NO apology whatsoever and he got us another room. That was fine, ENORMOUS king suite. As if you put 3 standard rooms and a bit together. Everything was in working order however internet was mediocre speed.Bed was fine but pillows just too soft.Location is great, literally less than 10 mins to NASA.No free breakfast as mentioned before so we skipped as there were numerous options nearby.It was ok but we'd skip staying here next time.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded February 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2014</t>
+  </si>
+  <si>
+    <t>Upon check-in we got a room that just REEKED of smoke. You know the feeling when you get that kick in the face as you open the door.So, walk back to the front desk with NO apology whatsoever and he got us another room. That was fine, ENORMOUS king suite. As if you put 3 standard rooms and a bit together. Everything was in working order however internet was mediocre speed.Bed was fine but pillows just too soft.Location is great, literally less than 10 mins to NASA.No free breakfast as mentioned before so we skipped as there were numerous options nearby.It was ok but we'd skip staying here next time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r175035875-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>175035875</t>
+  </si>
+  <si>
+    <t>08/31/2013</t>
+  </si>
+  <si>
+    <t>Um, what kind of place is this?</t>
+  </si>
+  <si>
+    <t>We are here for one night. I have been waiting at the bar for 15 minutes for a drink. No bartender. The desk clerk said she's "somewhere" and I'll just have to wait. The two men and the woman behind me are talking about their "sex industry business" and stripper poles. When we drove up and saw three ladies of the evening at the front door, I shouldn't have expected much. Not family friendly. MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded September 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2013</t>
+  </si>
+  <si>
+    <t>We are here for one night. I have been waiting at the bar for 15 minutes for a drink. No bartender. The desk clerk said she's "somewhere" and I'll just have to wait. The two men and the woman behind me are talking about their "sex industry business" and stripper poles. When we drove up and saw three ladies of the evening at the front door, I shouldn't have expected much. Not family friendly. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r167551691-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>167551691</t>
+  </si>
+  <si>
+    <t>07/14/2013</t>
+  </si>
+  <si>
+    <t>1 night stay</t>
+  </si>
+  <si>
+    <t>Stayed here for  1 night in February 2013 before leaving on a cruise. Hotel was very nice and clean. Good location located on a busy street close to interstate. Lots of restaurants, etc in the area. No problemsMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Tiffany R, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for  1 night in February 2013 before leaving on a cruise. Hotel was very nice and clean. Good location located on a busy street close to interstate. Lots of restaurants, etc in the area. No problemsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r166775948-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>166775948</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>Very good location</t>
+  </si>
+  <si>
+    <t>Room was comfortable but smelled of cigarette as soon as I entered. Once inside the smell was not apparent. I reserved a room with two queens, but the bed was more like a double than a queen. Apart from this I had no issues and enjoyed the stay. Will stay here again definitely if I am in the area. Driving distance to both kemah and NASA. Very close to interstate 45 and a good mix of fast food and restaurants around the hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was comfortable but smelled of cigarette as soon as I entered. Once inside the smell was not apparent. I reserved a room with two queens, but the bed was more like a double than a queen. Apart from this I had no issues and enjoyed the stay. Will stay here again definitely if I am in the area. Driving distance to both kemah and NASA. Very close to interstate 45 and a good mix of fast food and restaurants around the hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r158191050-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>158191050</t>
+  </si>
+  <si>
+    <t>04/19/2013</t>
+  </si>
+  <si>
+    <t>Good clean hotel</t>
+  </si>
+  <si>
+    <t>Rooms where clean and comfortable and the bed was good.Very close to NASA which was the purpose of the trip.Breakfast was good but not free but it is very near to Sonic/ Chipotle / Firehouse Subs.Free parking internet.Front desk was a bit slow on checkout but friendly and helpful.The indoor pool was great for the kids but towels where not always available.Had to plug the Television cable in again as it was loose.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r158024807-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>158024807</t>
+  </si>
+  <si>
+    <t>04/17/2013</t>
+  </si>
+  <si>
+    <t>Good, clean, and comfortable</t>
+  </si>
+  <si>
+    <t>I booked this hotel through my corporate travel agent and was pleased with the hotel. The hotel is newly renovated and linens are updated. Check in was quick and efficient and I didn't have to wait for the elevators. The room I was assigned was larger than a standard hotel room, as was the bathroom. The bed was very comfortable and I didn't have any problems falling asleep. The free wi-fi is reasonably fast.One odd thing I noticed was that there was only one trash can in the room at the work desk. There was no trash can in the bathroom. It wasn't a problem, just an observation.I would recommend this hotel and would stay here again. If you're staying here, make sure to look for it on a map, since it's set back from the road behind a shopping plaza.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel through my corporate travel agent and was pleased with the hotel. The hotel is newly renovated and linens are updated. Check in was quick and efficient and I didn't have to wait for the elevators. The room I was assigned was larger than a standard hotel room, as was the bathroom. The bed was very comfortable and I didn't have any problems falling asleep. The free wi-fi is reasonably fast.One odd thing I noticed was that there was only one trash can in the room at the work desk. There was no trash can in the bathroom. It wasn't a problem, just an observation.I would recommend this hotel and would stay here again. If you're staying here, make sure to look for it on a map, since it's set back from the road behind a shopping plaza.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r157816158-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>157816158</t>
+  </si>
+  <si>
+    <t>04/15/2013</t>
+  </si>
+  <si>
+    <t>SO close to NASA</t>
+  </si>
+  <si>
+    <t>NO FREE BREAKFAST!!!!!!!!!!!!!!!!!!! And it's not worth the money to pay for it.  Go next door to Sonic.  Great location! It's literally just three blocks away, with none of the highway traffic.Surrounded by great restaurants and chains (Sonic/Chipotle) you can walk to or you can drive to Lupe Tortilla or Thai Cottage. There is even a bowling alley next door!Four minute drive to the mall!The indoor pool was over-chlorinated and closed often.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>NO FREE BREAKFAST!!!!!!!!!!!!!!!!!!! And it's not worth the money to pay for it.  Go next door to Sonic.  Great location! It's literally just three blocks away, with none of the highway traffic.Surrounded by great restaurants and chains (Sonic/Chipotle) you can walk to or you can drive to Lupe Tortilla or Thai Cottage. There is even a bowling alley next door!Four minute drive to the mall!The indoor pool was over-chlorinated and closed often.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r151303690-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>151303690</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location. Near restaurants a bowling alley shops and more. The staff was excellent. Very nice and helpful. The room was clean and a perfect size. The beds are comfortable and the sheets and pillows were very clean. The pool and fitness center are open 24 hours. The hot tub was awesomeand the pool was perfect. The breakfast was delicious. The waiter was very attentive and the omlets were yummy. I would recommend staying here if you are in the Webster area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Tiffany R, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is in a great location. Near restaurants a bowling alley shops and more. The staff was excellent. Very nice and helpful. The room was clean and a perfect size. The beds are comfortable and the sheets and pillows were very clean. The pool and fitness center are open 24 hours. The hot tub was awesomeand the pool was perfect. The breakfast was delicious. The waiter was very attentive and the omlets were yummy. I would recommend staying here if you are in the Webster area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r149008777-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>149008777</t>
+  </si>
+  <si>
+    <t>01/06/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel near major restaurants and attractions</t>
+  </si>
+  <si>
+    <t>I stayed at this property near my home due to home maintenance issues.  It is somewhat easy to miss the entrance road (off from Bay Area Blvd.) is you are not familiar with the area.  There is abundant parking space, a large lobby and reception area, and in addition to the on property restaurant (which I did not try), this property is within walking distance of many popular restaurants.  I was recognized as a "Priority Club" member at check in, and given an upgraded room and a snack bag.  This is a relatively new property (less than five years old), and my suite was spacious, modern, and comfortable.  The bathroom was a little on the small side, but had a wonderful showerhead.  The bed and pillows were extremely comfortable, and although the room temperature was a bit chilly when I checked in, the thermostat worked great and my room warmed up in a hurry.  Front desk and room attendants were all very polite and helpful.  My Internet connection worked great, but I was a bit disappointed that the spa was out of service.  I would definitely recommend this hotel to friends, and would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this property near my home due to home maintenance issues.  It is somewhat easy to miss the entrance road (off from Bay Area Blvd.) is you are not familiar with the area.  There is abundant parking space, a large lobby and reception area, and in addition to the on property restaurant (which I did not try), this property is within walking distance of many popular restaurants.  I was recognized as a "Priority Club" member at check in, and given an upgraded room and a snack bag.  This is a relatively new property (less than five years old), and my suite was spacious, modern, and comfortable.  The bathroom was a little on the small side, but had a wonderful showerhead.  The bed and pillows were extremely comfortable, and although the room temperature was a bit chilly when I checked in, the thermostat worked great and my room warmed up in a hurry.  Front desk and room attendants were all very polite and helpful.  My Internet connection worked great, but I was a bit disappointed that the spa was out of service.  I would definitely recommend this hotel to friends, and would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r149003189-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>149003189</t>
+  </si>
+  <si>
+    <t>PERFECT LOCATION</t>
+  </si>
+  <si>
+    <t>Check-In was a bit rough, the front desk agent wasn't very attentive!!! On a good note Check-In was the ONLY issue we encountered throughout our 3 night stay. The rooms were PERFECT, breakfast was PERFECT, the staff (with the exception of the front desk agent who checked us in) was PERFECT &amp; of course it was the PERFECT LOCATION. We'll be back for future trips!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Check-In was a bit rough, the front desk agent wasn't very attentive!!! On a good note Check-In was the ONLY issue we encountered throughout our 3 night stay. The rooms were PERFECT, breakfast was PERFECT, the staff (with the exception of the front desk agent who checked us in) was PERFECT &amp; of course it was the PERFECT LOCATION. We'll be back for future trips!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r139317500-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>139317500</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Excellent customer service and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We were given a key to a room where we walked in an that room was still being occupied. While we didn't stumble across anything embarrassing it still wasn't a pleasant experience. The young girl at the counter upgraded us to a king suite at no charge,  was sincerely apologetic an called shortly after up to our new room to make sure we were satisfied. This hotel was very clean with the exception of the hall way carpets. New an modern and great breakfast.  Definitely would come back </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r139066528-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>139066528</t>
+  </si>
+  <si>
+    <t>09/01/2012</t>
+  </si>
+  <si>
+    <t>Like the location very much but had a major problem during my stay here</t>
+  </si>
+  <si>
+    <t>The good things :-
+1. Excellent Location. Very close to 100's of eating joints of different kinds. A boon for anyone without a car staying here. You also have  National car rental within walking distance and also some stores.
+2. The room is neat, clean, adequate for short stays.
+3. Complimentary coffee in the lobby.
+4. Free Parking.
+5. Friendly staff
+The bad :-
+1. For 2 days their internet was NOT working. I did not have a usb stick. It was just horrible. I stayed in Aug'12 and they gave me some illogical excuse that their is a storm in Chicago and their server is down because of it. It was extremely difficult. As I had to book my return international flights. I had to use my 3 g iphone to do it all. But iphone is iphone. When you are buying a 1500 us$ ticket, you prefer to do it on a big screen! I called them several times to rectify but they did not. Its ridiculous  you are running a 3 star hotel and have just one internet provider for your guests. If that provider fails, you are done!
+2. They were understaffed. I had a problem with the AC. They did not have a engineer or someone to come over and have a look. They asked me to come down, take a new key and shift to another room! And this was in the afternoon time...The good things :-1. Excellent Location. Very close to 100's of eating joints of different kinds. A boon for anyone without a car staying here. You also have  National car rental within walking distance and also some stores.2. The room is neat, clean, adequate for short stays.3. Complimentary coffee in the lobby.4. Free Parking.5. Friendly staffThe bad :-1. For 2 days their internet was NOT working. I did not have a usb stick. It was just horrible. I stayed in Aug'12 and they gave me some illogical excuse that their is a storm in Chicago and their server is down because of it. It was extremely difficult. As I had to book my return international flights. I had to use my 3 g iphone to do it all. But iphone is iphone. When you are buying a 1500 us$ ticket, you prefer to do it on a big screen! I called them several times to rectify but they did not. Its ridiculous  you are running a 3 star hotel and have just one internet provider for your guests. If that provider fails, you are done!2. They were understaffed. I had a problem with the AC. They did not have a engineer or someone to come over and have a look. They asked me to come down, take a new key and shift to another room! And this was in the afternoon time on a weekday!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Houston - Webster, responded to this reviewResponded September 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2012</t>
+  </si>
+  <si>
+    <t>The good things :-
+1. Excellent Location. Very close to 100's of eating joints of different kinds. A boon for anyone without a car staying here. You also have  National car rental within walking distance and also some stores.
+2. The room is neat, clean, adequate for short stays.
+3. Complimentary coffee in the lobby.
+4. Free Parking.
+5. Friendly staff
+The bad :-
+1. For 2 days their internet was NOT working. I did not have a usb stick. It was just horrible. I stayed in Aug'12 and they gave me some illogical excuse that their is a storm in Chicago and their server is down because of it. It was extremely difficult. As I had to book my return international flights. I had to use my 3 g iphone to do it all. But iphone is iphone. When you are buying a 1500 us$ ticket, you prefer to do it on a big screen! I called them several times to rectify but they did not. Its ridiculous  you are running a 3 star hotel and have just one internet provider for your guests. If that provider fails, you are done!
+2. They were understaffed. I had a problem with the AC. They did not have a engineer or someone to come over and have a look. They asked me to come down, take a new key and shift to another room! And this was in the afternoon time...The good things :-1. Excellent Location. Very close to 100's of eating joints of different kinds. A boon for anyone without a car staying here. You also have  National car rental within walking distance and also some stores.2. The room is neat, clean, adequate for short stays.3. Complimentary coffee in the lobby.4. Free Parking.5. Friendly staffThe bad :-1. For 2 days their internet was NOT working. I did not have a usb stick. It was just horrible. I stayed in Aug'12 and they gave me some illogical excuse that their is a storm in Chicago and their server is down because of it. It was extremely difficult. As I had to book my return international flights. I had to use my 3 g iphone to do it all. But iphone is iphone. When you are buying a 1500 us$ ticket, you prefer to do it on a big screen! I called them several times to rectify but they did not. Its ridiculous  you are running a 3 star hotel and have just one internet provider for your guests. If that provider fails, you are done!2. They were understaffed. I had a problem with the AC. They did not have a engineer or someone to come over and have a look. They asked me to come down, take a new key and shift to another room! And this was in the afternoon time on a weekday!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r137375659-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>137375659</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Our family of 5 stayed there for 3 days and never encountered one problem. Floyd was super nice at check-in. The hotel is super clean and quiet. We did have to fuss with the a/c a little bit but it was no big deal. Beds are comfy and come with 4 pillows each. On a side note: this hotel is very easy to miss, the Holiday Inn sign is down on the ground. So you will see the hotel but have to be on the look out for the entrance.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r133958596-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>133958596</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Pleasant Surprise!</t>
+  </si>
+  <si>
+    <t>We were a little nervous when we opted to stay in the Webster area as opposed to a Downtown Houston location, but this very Contemporary style, full-service (though it lacked a complimentray breakfast:( and state-of-the-art facility did not disappoint!  Nice quite and peaceful location.  It is surrounded by exceptional attractions like the Lyndon B. Johnson Space Center (less than two minute drive), where we discovered the world of space exploration at the NASA Space Center.  Downtown Houston was just a short drive from Webster, Texas (twenty to thirty minute drive) and easily acessible for taking in a ball game at Minute Maid Park. This hotel is designed with your comfort in mind.  There is an indoor, heated saline pool that our family of five enjoyed although it was very warm and muggy in the pool area and the pool left a horrible stench on our suits.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>We were a little nervous when we opted to stay in the Webster area as opposed to a Downtown Houston location, but this very Contemporary style, full-service (though it lacked a complimentray breakfast:( and state-of-the-art facility did not disappoint!  Nice quite and peaceful location.  It is surrounded by exceptional attractions like the Lyndon B. Johnson Space Center (less than two minute drive), where we discovered the world of space exploration at the NASA Space Center.  Downtown Houston was just a short drive from Webster, Texas (twenty to thirty minute drive) and easily acessible for taking in a ball game at Minute Maid Park. This hotel is designed with your comfort in mind.  There is an indoor, heated saline pool that our family of five enjoyed although it was very warm and muggy in the pool area and the pool left a horrible stench on our suits.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r131193551-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>131193551</t>
+  </si>
+  <si>
+    <t>06/03/2012</t>
+  </si>
+  <si>
+    <t>Clean and comfortable!!!</t>
+  </si>
+  <si>
+    <t>My husband and I came to the area for a friends wedding and chose to stay at this property and I can honesty say this is the cleanest hotel I have ever stayed at.  I'm a hotel manager myself and have stayed at A LOT of hotels and I of course inspect every little thing:) There wasn't even any dust on top of the headboard! Very impressive:) Good job housekeeping!Rebecca at the front desk was very sweet and professional. The only suggestion I have for the front desk is to keep the conditioner stocked. I asked for conditioner on 3 separate occasions and none was available. When I asked the last time someone (I believe a manager) got me some right away. Not a big deal, just a suggestion. My cell phone had no Internet service the entire stay (even when connected to the free wifi) but I have AT&amp;T and often have problems with their service so that may not be a wifi issue. All in all I would say this is definitely a great hotel! Very very clean and a lot of really good restaurants within walking distance. MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I came to the area for a friends wedding and chose to stay at this property and I can honesty say this is the cleanest hotel I have ever stayed at.  I'm a hotel manager myself and have stayed at A LOT of hotels and I of course inspect every little thing:) There wasn't even any dust on top of the headboard! Very impressive:) Good job housekeeping!Rebecca at the front desk was very sweet and professional. The only suggestion I have for the front desk is to keep the conditioner stocked. I asked for conditioner on 3 separate occasions and none was available. When I asked the last time someone (I believe a manager) got me some right away. Not a big deal, just a suggestion. My cell phone had no Internet service the entire stay (even when connected to the free wifi) but I have AT&amp;T and often have problems with their service so that may not be a wifi issue. All in all I would say this is definitely a great hotel! Very very clean and a lot of really good restaurants within walking distance. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r124742094-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>124742094</t>
+  </si>
+  <si>
+    <t>02/17/2012</t>
+  </si>
+  <si>
+    <t>A Beautiful Hotel and the BEST Service!</t>
+  </si>
+  <si>
+    <t>After a long day of traveling in heavy traffic and wet raining weather, it was nice to walk into such a beautiful hotel with welcoming staff members! The rooms were very clean as well at the lobby areas and bar area. We will definately be back!!! Thank you for your kind hospitality!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r123186488-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>123186488</t>
+  </si>
+  <si>
+    <t>01/16/2012</t>
+  </si>
+  <si>
+    <t>We had to tell you!</t>
+  </si>
+  <si>
+    <t>The hotel staff was very inviting and accommodating. We were on our honeymoon and needed something impressive, but for not a lot of money.  This fit perfectly - loved the room! Wonderful amenities, immaculate room and facilities, and the staff provided excellent service . The restaurant downstairs seemed a little pricey, but when we got our meals -- the food tasted great and large portions. Whenever in the area, we will definitely consider staying here again. This hotel surely added to the beautiful memory of starting our lives together.</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r122106800-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>122106800</t>
+  </si>
+  <si>
+    <t>12/26/2011</t>
+  </si>
+  <si>
+    <t>My expectations were met.</t>
+  </si>
+  <si>
+    <t>I won this property through an opaque bidding site and I could find no serious issues with the hotel. The Webster - NASA area is my location of choice when visiting South Houston because of its great location. We got what we were promised; a clean room - 2 beds - clean bath with soft towels, all in a safe location. Unlike other posters, we were greeted promptly by the front desk staff, assigned a good room, and any questioins were answered quickly.HI and its competitors have all taken clues from the airline industry and now charge ala' carte for breakfast. So be it. Also, I can't really can't get my nose bent out of joint because there was no newspaper. I simply walked out the front door turned left and purchased my paper at the corner gas station.One is within walking distance to several good restaurants and the Bay Brook Shopping Mall is just across IH-45 to the East. You will need a car to get there.Check-out was very quick.This was our 3rd visit to this HI without incident. We have no complaints.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>I won this property through an opaque bidding site and I could find no serious issues with the hotel. The Webster - NASA area is my location of choice when visiting South Houston because of its great location. We got what we were promised; a clean room - 2 beds - clean bath with soft towels, all in a safe location. Unlike other posters, we were greeted promptly by the front desk staff, assigned a good room, and any questioins were answered quickly.HI and its competitors have all taken clues from the airline industry and now charge ala' carte for breakfast. So be it. Also, I can't really can't get my nose bent out of joint because there was no newspaper. I simply walked out the front door turned left and purchased my paper at the corner gas station.One is within walking distance to several good restaurants and the Bay Brook Shopping Mall is just across IH-45 to the East. You will need a car to get there.Check-out was very quick.This was our 3rd visit to this HI without incident. We have no complaints.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r121660229-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>121660229</t>
+  </si>
+  <si>
+    <t>12/12/2011</t>
+  </si>
+  <si>
+    <t>Good, not great, and slipping fast.</t>
+  </si>
+  <si>
+    <t>I have stayed at this property 4 or 5 times in the past year. This has been my preferred place to stay since it opened, but hate to say it, but they are slipping.  Front desk staff were efficient, but not friendly.  No newspapers?  I think this is the first HI that I've ever found that and I've stayed over 50 nights in HI's this year alone.  Have to give the breakfast high marks - good assortment and waitstaff were friendly and attentive.  Ditto the bar staff who even kept the bar open a little longer than poste hours for us late arrivals.  Rooms were clean, bed was comfortable.  But all-in-all, next trip to Houston, I will look elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed at this property 4 or 5 times in the past year. This has been my preferred place to stay since it opened, but hate to say it, but they are slipping.  Front desk staff were efficient, but not friendly.  No newspapers?  I think this is the first HI that I've ever found that and I've stayed over 50 nights in HI's this year alone.  Have to give the breakfast high marks - good assortment and waitstaff were friendly and attentive.  Ditto the bar staff who even kept the bar open a little longer than poste hours for us late arrivals.  Rooms were clean, bed was comfortable.  But all-in-all, next trip to Houston, I will look elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r118285885-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>118285885</t>
+  </si>
+  <si>
+    <t>09/18/2011</t>
+  </si>
+  <si>
+    <t>Bad service and Poor Management</t>
+  </si>
+  <si>
+    <t>This hotel is very disorganized.  The management is very poor and they are not customer friendly at all.  The physical space is fine.  However, my problem is with how they handled my bill by double billing me and not correcting the problem even one month after they said they would. they changed their story about why they didn't refund the charge saying that is due to some online reservation policy.  Now I am going through the process of disputing this. this is just one of my problems with this place. I would never recommend this hotel to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>HolidayInnWebster, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded September 20, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 20, 2011</t>
+  </si>
+  <si>
+    <t>This hotel is very disorganized.  The management is very poor and they are not customer friendly at all.  The physical space is fine.  However, my problem is with how they handled my bill by double billing me and not correcting the problem even one month after they said they would. they changed their story about why they didn't refund the charge saying that is due to some online reservation policy.  Now I am going through the process of disputing this. this is just one of my problems with this place. I would never recommend this hotel to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r116712026-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>116712026</t>
+  </si>
+  <si>
+    <t>08/14/2011</t>
+  </si>
+  <si>
+    <t>Very Nice</t>
+  </si>
+  <si>
+    <t>New, spotless hotel on Bay Area Boulevard in Webster, Texas.  Friendly staff, very quiet, with easy access and convenient to businesses and attractions in the Clear Lake, Webster area.MoreShow less</t>
+  </si>
+  <si>
+    <t>HolidayInnWebster, General Manager at Holiday Inn Houston - Webster, responded to this reviewResponded August 16, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2011</t>
+  </si>
+  <si>
+    <t>New, spotless hotel on Bay Area Boulevard in Webster, Texas.  Friendly staff, very quiet, with easy access and convenient to businesses and attractions in the Clear Lake, Webster area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r102767241-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>102767241</t>
+  </si>
+  <si>
+    <t>04/04/2011</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>Very friendly, accommodating, helpful staff.  Everyone seemed truly concerned that we had a good stay. Great room service.  Great lighting and AC in room. Comfortable beds. Clean, quiet, good area. It was the best hotel stays I've had of this class.</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r83645284-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>83645284</t>
+  </si>
+  <si>
+    <t>10/15/2010</t>
+  </si>
+  <si>
+    <t>They need to improve the internet service and restaurant</t>
+  </si>
+  <si>
+    <t>Battled all night with their internet service and they could not get it to work properly (WI-FI). Called their technical support 800 number 3 times and all they could say was that "they had escalated the problem". Really frustrating specially for business.Restuarant did not have a buffet for breakfast and this was a delay. I guess that due to the low occupancy they cannot justify a buffet at this time.Good facility and good fitness area but will not stay there again. (Cell phone coverage was terrible as well - I have ATT)</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r82514273-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>82514273</t>
+  </si>
+  <si>
+    <t>10/07/2010</t>
+  </si>
+  <si>
+    <t>Nice and clean and good sized rooms.</t>
+  </si>
+  <si>
+    <t>We did a quick trip out to Webster for a relative's wedding and booked two rooms for two nights.  The Holiday Inn was very reasonable (booked on Hotwire) and clean.  The staff was very friendly and helpful.  We arrived very late and where wondering about our breakfast options in the morning.  The night desk clerk offered to write down a few close by restaurants with directions.  We picked up our list in the morning and chose The Egg and I, just across the street.  It was a nice extra touch.  There are a bunch of restaurants within walking distance.  All in all, would stay there again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r82297921-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>82297921</t>
+  </si>
+  <si>
+    <t>10/06/2010</t>
+  </si>
+  <si>
+    <t>Business Meeting</t>
+  </si>
+  <si>
+    <t>Arrived at Holiday Inn and front desk associate was very friendly and helpful. Everything was smooth and enjoyable, we were able to have a few days of learning and comfort. Brandon, Shawna and Charles were very helpful and pleasant to work with.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r78644296-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>78644296</t>
+  </si>
+  <si>
+    <t>09/07/2010</t>
+  </si>
+  <si>
+    <t>GREAT HOTEL!</t>
+  </si>
+  <si>
+    <t>We pricelined this hotel for $35.00 a night during Labor Day weekend!  The staff especially Brandon was extremely helpful and polite.  We asked for a roll away bed and he found one and had it brought up to our room.  Our room was on the 4th floor and was exactly like the internet showed.  Only thing I noticed was wallpaper falling down in the hallway and they used bright green duct tape and push pins to hold it together.  We were also in need of additional towels and we called the front desk and they were brought up within 5 minutes.  The next morning the maid service knocked on our door to ask if we needed anything additional towels, shampoo, toothbrush....it was very nice!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>We pricelined this hotel for $35.00 a night during Labor Day weekend!  The staff especially Brandon was extremely helpful and polite.  We asked for a roll away bed and he found one and had it brought up to our room.  Our room was on the 4th floor and was exactly like the internet showed.  Only thing I noticed was wallpaper falling down in the hallway and they used bright green duct tape and push pins to hold it together.  We were also in need of additional towels and we called the front desk and they were brought up within 5 minutes.  The next morning the maid service knocked on our door to ask if we needed anything additional towels, shampoo, toothbrush....it was very nice!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r77731545-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>77731545</t>
+  </si>
+  <si>
+    <t>08/31/2010</t>
+  </si>
+  <si>
+    <t>Awesome!</t>
+  </si>
+  <si>
+    <t>Perfect hotel, perfect location. I would like to mention that the gentleman, Brandon Wingate, at the front desk is absolutely superb.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56855-d1464964-r62597516-Holiday_Inn_Houston_Webster-Webster_Texas.html</t>
+  </si>
+  <si>
+    <t>62597516</t>
+  </si>
+  <si>
+    <t>04/27/2010</t>
+  </si>
+  <si>
+    <t>GREAT hotel!  But with a few glitches...</t>
+  </si>
+  <si>
+    <t>We booked this hotel via Priceline, getting a rate approximately $20 under the Holiday Inn internet rate.  I haven't stayed in a Holiday Inn in a LONG time, and my last stay left a LOT to be desired.  So, when I looked this place up on the internet I liked what I saw.  And, truly, from an appearance and comfort perspective it absolutely and positively did not disappoint.  The hotel opened in November 2009, but it looked and smelled like a brand new hotel!  Everything was immaculate. If you enjoy sleek and contemporary design this is your place.  The rooms were very hip and cool with chocolate brown and teal color schemes and contemporary art on the walls.  The bed was incredible - beautiful and comfortable with a Simmons Beauty Rest pillow top mattress and a fluffy mattress pad on top of that.  I don't think I even rolled over in my sleep the entire night, I was so comfortable!
+Now for the not-so-goods: 
+1) Kids in an elevator reported the pool was filled with SALT water - two of them had very red and irritated faces that the Mom said must have come from the pool water (they were stinging hurting and red).  If you plan to swim, you might check this out before you book.
+2) I called the hotel the night before to add my Priority Club number to the record.  When I arrived it was not...We booked this hotel via Priceline, getting a rate approximately $20 under the Holiday Inn internet rate.  I haven't stayed in a Holiday Inn in a LONG time, and my last stay left a LOT to be desired.  So, when I looked this place up on the internet I liked what I saw.  And, truly, from an appearance and comfort perspective it absolutely and positively did not disappoint.  The hotel opened in November 2009, but it looked and smelled like a brand new hotel!  Everything was immaculate. If you enjoy sleek and contemporary design this is your place.  The rooms were very hip and cool with chocolate brown and teal color schemes and contemporary art on the walls.  The bed was incredible - beautiful and comfortable with a Simmons Beauty Rest pillow top mattress and a fluffy mattress pad on top of that.  I don't think I even rolled over in my sleep the entire night, I was so comfortable!Now for the not-so-goods: 1) Kids in an elevator reported the pool was filled with SALT water - two of them had very red and irritated faces that the Mom said must have come from the pool water (they were stinging hurting and red).  If you plan to swim, you might check this out before you book.2) I called the hotel the night before to add my Priority Club number to the record.  When I arrived it was not in there.  The night before, we discussed my room preferences and the hotel guy selected a specific room (503)  for me based on what I wanted, and gave me the room number.  Very cool - I thought.3) Check in took longer than it should have.  Not sure why, but I guess the worker(s) just aren't very fast.  We got our room key to the room I discussed with the hotel worker the night before.  When we got to the room (after lugging all our luggage up there) the key worked but we went in and the room wasn't made up and/or someone was still in it.  Back downstairs I went to get another room.  Got one across the hall (504), which was an upgraded room.  Very cool - I thought.  We went out to a party, and came home quite late (around 12:45am).  Went to our room, and it smelled horrible!  I thought it was a gas leak smell, and immediately panicked.  Hubby thought it was a sewage smell.  Regardless it was not something that you could get used to.  Called down to the front desk at 1am - exhausted and irritated.  Desk clerk said he was busy checking in other guests.  Called again 15 minutes - said he was still busy checking in other guests.  Finally, I called again five minutes later and he asked if we wanted another room.  We'd already packed up all our stuff and were ready to move.  They brought up another key to room 506, and we moved ourselves (!) across the hallway.  The guy that brought up the key didn't even go into our room to see what we were complaining about.  He just handed us the key and walked away.  I don't think we even got an apology.  Room 506 was hot (logical - no a/c had been on) so it took about 20 minutes+ to get it down to a sleepable temperature.  So, we got unpacked (again) and by about 2am we were in bed to sleep.4) Woke up on my own and looked at the clock - 9:17am - we overslept but not too badly.  I rolled over and went back to sleep.  A few minutes later I looked at my watch - the alarm clock was OFF by an hour - it was actually 10:17am not 9:17am!  Now we are really late and in a panic.  The microwave clock in the room was also on the wrong time.  Additionally, the clock in room 504's time was off by an hour.  Upon checkout the front desk was apologetic but had no explanation.  We saw some maids in our hallway when we checked out, and they said there had been a sewage back up that had impacted several rooms on our side of the hotel.  Obviously this was a problem not in our room only.5) Since we booked through Priceline, the front desk suggested we contact them for any kind of monetary compensation.  I think the hotel should have been more proactive to address the issues and help us.  It's not like they didn't do ANYTHING, but who in the world wants to pack up all their hotel belongings at 1am and change rooms with no assistance with bags, etc.?  And to a room with no a/c?  UGH!Other then that, the hotel was great.  It was immaculately clean and we were very comfortable in it.  I'd stay there again, but for the future I will check the clocks, etc. and resist unpacking everything until I know I'm in a room that doesn't stink.  :&gt;)MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>We booked this hotel via Priceline, getting a rate approximately $20 under the Holiday Inn internet rate.  I haven't stayed in a Holiday Inn in a LONG time, and my last stay left a LOT to be desired.  So, when I looked this place up on the internet I liked what I saw.  And, truly, from an appearance and comfort perspective it absolutely and positively did not disappoint.  The hotel opened in November 2009, but it looked and smelled like a brand new hotel!  Everything was immaculate. If you enjoy sleek and contemporary design this is your place.  The rooms were very hip and cool with chocolate brown and teal color schemes and contemporary art on the walls.  The bed was incredible - beautiful and comfortable with a Simmons Beauty Rest pillow top mattress and a fluffy mattress pad on top of that.  I don't think I even rolled over in my sleep the entire night, I was so comfortable!
+Now for the not-so-goods: 
+1) Kids in an elevator reported the pool was filled with SALT water - two of them had very red and irritated faces that the Mom said must have come from the pool water (they were stinging hurting and red).  If you plan to swim, you might check this out before you book.
+2) I called the hotel the night before to add my Priority Club number to the record.  When I arrived it was not...We booked this hotel via Priceline, getting a rate approximately $20 under the Holiday Inn internet rate.  I haven't stayed in a Holiday Inn in a LONG time, and my last stay left a LOT to be desired.  So, when I looked this place up on the internet I liked what I saw.  And, truly, from an appearance and comfort perspective it absolutely and positively did not disappoint.  The hotel opened in November 2009, but it looked and smelled like a brand new hotel!  Everything was immaculate. If you enjoy sleek and contemporary design this is your place.  The rooms were very hip and cool with chocolate brown and teal color schemes and contemporary art on the walls.  The bed was incredible - beautiful and comfortable with a Simmons Beauty Rest pillow top mattress and a fluffy mattress pad on top of that.  I don't think I even rolled over in my sleep the entire night, I was so comfortable!Now for the not-so-goods: 1) Kids in an elevator reported the pool was filled with SALT water - two of them had very red and irritated faces that the Mom said must have come from the pool water (they were stinging hurting and red).  If you plan to swim, you might check this out before you book.2) I called the hotel the night before to add my Priority Club number to the record.  When I arrived it was not in there.  The night before, we discussed my room preferences and the hotel guy selected a specific room (503)  for me based on what I wanted, and gave me the room number.  Very cool - I thought.3) Check in took longer than it should have.  Not sure why, but I guess the worker(s) just aren't very fast.  We got our room key to the room I discussed with the hotel worker the night before.  When we got to the room (after lugging all our luggage up there) the key worked but we went in and the room wasn't made up and/or someone was still in it.  Back downstairs I went to get another room.  Got one across the hall (504), which was an upgraded room.  Very cool - I thought.  We went out to a party, and came home quite late (around 12:45am).  Went to our room, and it smelled horrible!  I thought it was a gas leak smell, and immediately panicked.  Hubby thought it was a sewage smell.  Regardless it was not something that you could get used to.  Called down to the front desk at 1am - exhausted and irritated.  Desk clerk said he was busy checking in other guests.  Called again 15 minutes - said he was still busy checking in other guests.  Finally, I called again five minutes later and he asked if we wanted another room.  We'd already packed up all our stuff and were ready to move.  They brought up another key to room 506, and we moved ourselves (!) across the hallway.  The guy that brought up the key didn't even go into our room to see what we were complaining about.  He just handed us the key and walked away.  I don't think we even got an apology.  Room 506 was hot (logical - no a/c had been on) so it took about 20 minutes+ to get it down to a sleepable temperature.  So, we got unpacked (again) and by about 2am we were in bed to sleep.4) Woke up on my own and looked at the clock - 9:17am - we overslept but not too badly.  I rolled over and went back to sleep.  A few minutes later I looked at my watch - the alarm clock was OFF by an hour - it was actually 10:17am not 9:17am!  Now we are really late and in a panic.  The microwave clock in the room was also on the wrong time.  Additionally, the clock in room 504's time was off by an hour.  Upon checkout the front desk was apologetic but had no explanation.  We saw some maids in our hallway when we checked out, and they said there had been a sewage back up that had impacted several rooms on our side of the hotel.  Obviously this was a problem not in our room only.5) Since we booked through Priceline, the front desk suggested we contact them for any kind of monetary compensation.  I think the hotel should have been more proactive to address the issues and help us.  It's not like they didn't do ANYTHING, but who in the world wants to pack up all their hotel belongings at 1am and change rooms with no assistance with bags, etc.?  And to a room with no a/c?  UGH!Other then that, the hotel was great.  It was immaculately clean and we were very comfortable in it.  I'd stay there again, but for the future I will check the clocks, etc. and resist unpacking everything until I know I'm in a room that doesn't stink.  :&gt;)More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2781,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2813,6496 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>68</v>
+      </c>
+      <c r="X4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" t="s">
+        <v>73</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O8" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>104</v>
+      </c>
+      <c r="X8" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>114</v>
+      </c>
+      <c r="J10" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" t="s">
+        <v>67</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" t="s">
+        <v>128</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>123</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>123</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>140</v>
+      </c>
+      <c r="X14" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>144</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>148</v>
+      </c>
+      <c r="O15" t="s">
+        <v>67</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>149</v>
+      </c>
+      <c r="X15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
+      </c>
+      <c r="K16" t="s">
+        <v>155</v>
+      </c>
+      <c r="L16" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>157</v>
+      </c>
+      <c r="O16" t="s">
+        <v>67</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>158</v>
+      </c>
+      <c r="X16" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J17" t="s">
+        <v>163</v>
+      </c>
+      <c r="K17" t="s">
+        <v>164</v>
+      </c>
+      <c r="L17" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>166</v>
+      </c>
+      <c r="X17" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>174</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>176</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>177</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" t="s">
+        <v>179</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>85</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21" t="s">
+        <v>195</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>196</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>200</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>201</v>
+      </c>
+      <c r="J22" t="s">
+        <v>202</v>
+      </c>
+      <c r="K22" t="s">
+        <v>203</v>
+      </c>
+      <c r="L22" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>207</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>208</v>
+      </c>
+      <c r="J23" t="s">
+        <v>209</v>
+      </c>
+      <c r="K23" t="s">
+        <v>210</v>
+      </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>212</v>
+      </c>
+      <c r="O23" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>217</v>
+      </c>
+      <c r="J24" t="s">
+        <v>218</v>
+      </c>
+      <c r="K24" t="s">
+        <v>219</v>
+      </c>
+      <c r="L24" t="s">
+        <v>220</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>221</v>
+      </c>
+      <c r="X24" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>225</v>
+      </c>
+      <c r="J25" t="s">
+        <v>226</v>
+      </c>
+      <c r="K25" t="s">
+        <v>227</v>
+      </c>
+      <c r="L25" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>229</v>
+      </c>
+      <c r="X25" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>232</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>233</v>
+      </c>
+      <c r="J26" t="s">
+        <v>234</v>
+      </c>
+      <c r="K26" t="s">
+        <v>235</v>
+      </c>
+      <c r="L26" t="s">
+        <v>236</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>148</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>237</v>
+      </c>
+      <c r="X26" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>241</v>
+      </c>
+      <c r="J27" t="s">
+        <v>242</v>
+      </c>
+      <c r="K27" t="s">
+        <v>243</v>
+      </c>
+      <c r="L27" t="s">
+        <v>244</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s">
+        <v>67</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>247</v>
+      </c>
+      <c r="J28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" t="s">
+        <v>250</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>245</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>251</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>252</v>
+      </c>
+      <c r="J29" t="s">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s">
+        <v>255</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>148</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>256</v>
+      </c>
+      <c r="X29" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>259</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>260</v>
+      </c>
+      <c r="J30" t="s">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s">
+        <v>262</v>
+      </c>
+      <c r="L30" t="s">
+        <v>263</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>256</v>
+      </c>
+      <c r="X30" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>267</v>
+      </c>
+      <c r="J31" t="s">
+        <v>268</v>
+      </c>
+      <c r="K31" t="s">
+        <v>269</v>
+      </c>
+      <c r="L31" t="s">
+        <v>270</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>264</v>
+      </c>
+      <c r="O31" t="s">
+        <v>174</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>271</v>
+      </c>
+      <c r="X31" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>274</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>275</v>
+      </c>
+      <c r="J32" t="s">
+        <v>276</v>
+      </c>
+      <c r="K32" t="s">
+        <v>277</v>
+      </c>
+      <c r="L32" t="s">
+        <v>278</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>279</v>
+      </c>
+      <c r="O32" t="s">
+        <v>174</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>282</v>
+      </c>
+      <c r="J33" t="s">
+        <v>283</v>
+      </c>
+      <c r="K33" t="s">
+        <v>284</v>
+      </c>
+      <c r="L33" t="s">
+        <v>285</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>67</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>290</v>
+      </c>
+      <c r="L34" t="s">
+        <v>291</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>279</v>
+      </c>
+      <c r="O34" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>293</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s">
+        <v>296</v>
+      </c>
+      <c r="L35" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>174</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>299</v>
+      </c>
+      <c r="X35" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>302</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>303</v>
+      </c>
+      <c r="J36" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" t="s">
+        <v>305</v>
+      </c>
+      <c r="L36" t="s">
+        <v>306</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>67</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>307</v>
+      </c>
+      <c r="X36" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>310</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>311</v>
+      </c>
+      <c r="J37" t="s">
+        <v>304</v>
+      </c>
+      <c r="K37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L37" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>298</v>
+      </c>
+      <c r="O37" t="s">
+        <v>314</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>307</v>
+      </c>
+      <c r="X37" t="s">
+        <v>308</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>316</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>317</v>
+      </c>
+      <c r="J38" t="s">
+        <v>318</v>
+      </c>
+      <c r="K38" t="s">
+        <v>319</v>
+      </c>
+      <c r="L38" t="s">
+        <v>320</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>321</v>
+      </c>
+      <c r="X38" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>324</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>325</v>
+      </c>
+      <c r="J39" t="s">
+        <v>326</v>
+      </c>
+      <c r="K39" t="s">
+        <v>327</v>
+      </c>
+      <c r="L39" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>329</v>
+      </c>
+      <c r="O39" t="s">
+        <v>314</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>330</v>
+      </c>
+      <c r="X39" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>333</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>334</v>
+      </c>
+      <c r="J40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K40" t="s">
+        <v>336</v>
+      </c>
+      <c r="L40" t="s">
+        <v>337</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>286</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>4</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>330</v>
+      </c>
+      <c r="X40" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>339</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>340</v>
+      </c>
+      <c r="J41" t="s">
+        <v>341</v>
+      </c>
+      <c r="K41" t="s">
+        <v>342</v>
+      </c>
+      <c r="L41" t="s">
+        <v>343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>286</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>344</v>
+      </c>
+      <c r="X41" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>286</v>
+      </c>
+      <c r="O42" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>352</v>
+      </c>
+      <c r="X42" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>356</v>
+      </c>
+      <c r="J43" t="s">
+        <v>357</v>
+      </c>
+      <c r="K43" t="s">
+        <v>358</v>
+      </c>
+      <c r="L43" t="s">
+        <v>359</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>360</v>
+      </c>
+      <c r="O43" t="s">
+        <v>174</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>361</v>
+      </c>
+      <c r="X43" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>364</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>365</v>
+      </c>
+      <c r="J44" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" t="s">
+        <v>367</v>
+      </c>
+      <c r="L44" t="s">
+        <v>368</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>369</v>
+      </c>
+      <c r="O44" t="s">
+        <v>174</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>370</v>
+      </c>
+      <c r="X44" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>373</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>374</v>
+      </c>
+      <c r="J45" t="s">
+        <v>375</v>
+      </c>
+      <c r="K45" t="s">
+        <v>376</v>
+      </c>
+      <c r="L45" t="s">
+        <v>377</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>360</v>
+      </c>
+      <c r="O45" t="s">
+        <v>85</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>379</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>380</v>
+      </c>
+      <c r="J46" t="s">
+        <v>381</v>
+      </c>
+      <c r="K46" t="s">
+        <v>382</v>
+      </c>
+      <c r="L46" t="s">
+        <v>383</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>369</v>
+      </c>
+      <c r="O46" t="s">
+        <v>85</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>384</v>
+      </c>
+      <c r="X46" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>387</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>388</v>
+      </c>
+      <c r="J47" t="s">
+        <v>389</v>
+      </c>
+      <c r="K47" t="s">
+        <v>390</v>
+      </c>
+      <c r="L47" t="s">
+        <v>391</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>369</v>
+      </c>
+      <c r="O47" t="s">
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>392</v>
+      </c>
+      <c r="X47" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>395</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>396</v>
+      </c>
+      <c r="J48" t="s">
+        <v>397</v>
+      </c>
+      <c r="K48" t="s">
+        <v>398</v>
+      </c>
+      <c r="L48" t="s">
+        <v>399</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>400</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>401</v>
+      </c>
+      <c r="X48" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>404</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>405</v>
+      </c>
+      <c r="J49" t="s">
+        <v>406</v>
+      </c>
+      <c r="K49" t="s">
+        <v>407</v>
+      </c>
+      <c r="L49" t="s">
+        <v>408</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>400</v>
+      </c>
+      <c r="O49" t="s">
+        <v>67</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>401</v>
+      </c>
+      <c r="X49" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>410</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>411</v>
+      </c>
+      <c r="J50" t="s">
+        <v>412</v>
+      </c>
+      <c r="K50" t="s">
+        <v>413</v>
+      </c>
+      <c r="L50" t="s">
+        <v>414</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>400</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>415</v>
+      </c>
+      <c r="X50" t="s">
+        <v>416</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>418</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>419</v>
+      </c>
+      <c r="J51" t="s">
+        <v>420</v>
+      </c>
+      <c r="K51" t="s">
+        <v>421</v>
+      </c>
+      <c r="L51" t="s">
+        <v>422</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>423</v>
+      </c>
+      <c r="X51" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>426</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>427</v>
+      </c>
+      <c r="J52" t="s">
+        <v>428</v>
+      </c>
+      <c r="K52" t="s">
+        <v>429</v>
+      </c>
+      <c r="L52" t="s">
+        <v>430</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>431</v>
+      </c>
+      <c r="X52" t="s">
+        <v>432</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>434</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>435</v>
+      </c>
+      <c r="J53" t="s">
+        <v>436</v>
+      </c>
+      <c r="K53" t="s">
+        <v>437</v>
+      </c>
+      <c r="L53" t="s">
+        <v>438</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>439</v>
+      </c>
+      <c r="O53" t="s">
+        <v>67</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>440</v>
+      </c>
+      <c r="X53" t="s">
+        <v>441</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>443</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>444</v>
+      </c>
+      <c r="J54" t="s">
+        <v>445</v>
+      </c>
+      <c r="K54" t="s">
+        <v>446</v>
+      </c>
+      <c r="L54" t="s">
+        <v>447</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>448</v>
+      </c>
+      <c r="O54" t="s">
+        <v>174</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>449</v>
+      </c>
+      <c r="X54" t="s">
+        <v>450</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>452</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>453</v>
+      </c>
+      <c r="J55" t="s">
+        <v>454</v>
+      </c>
+      <c r="K55" t="s">
+        <v>455</v>
+      </c>
+      <c r="L55" t="s">
+        <v>456</v>
+      </c>
+      <c r="M55" t="n">
+        <v>3</v>
+      </c>
+      <c r="N55" t="s">
+        <v>457</v>
+      </c>
+      <c r="O55" t="s">
+        <v>67</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>458</v>
+      </c>
+      <c r="X55" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>462</v>
+      </c>
+      <c r="J56" t="s">
+        <v>463</v>
+      </c>
+      <c r="K56" t="s">
+        <v>464</v>
+      </c>
+      <c r="L56" t="s">
+        <v>465</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>466</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>458</v>
+      </c>
+      <c r="X56" t="s">
+        <v>459</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>468</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>469</v>
+      </c>
+      <c r="J57" t="s">
+        <v>470</v>
+      </c>
+      <c r="K57" t="s">
+        <v>471</v>
+      </c>
+      <c r="L57" t="s">
+        <v>472</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>473</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>474</v>
+      </c>
+      <c r="X57" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>477</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>478</v>
+      </c>
+      <c r="J58" t="s">
+        <v>479</v>
+      </c>
+      <c r="K58" t="s">
+        <v>480</v>
+      </c>
+      <c r="L58" t="s">
+        <v>481</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>473</v>
+      </c>
+      <c r="O58" t="s">
+        <v>174</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>483</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>484</v>
+      </c>
+      <c r="J59" t="s">
+        <v>485</v>
+      </c>
+      <c r="K59" t="s">
+        <v>486</v>
+      </c>
+      <c r="L59" t="s">
+        <v>487</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>488</v>
+      </c>
+      <c r="O59" t="s">
+        <v>314</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>490</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>491</v>
+      </c>
+      <c r="J60" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" t="s">
+        <v>492</v>
+      </c>
+      <c r="L60" t="s">
+        <v>493</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>488</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>494</v>
+      </c>
+      <c r="X60" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>497</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>498</v>
+      </c>
+      <c r="J61" t="s">
+        <v>499</v>
+      </c>
+      <c r="K61" t="s">
+        <v>407</v>
+      </c>
+      <c r="L61" t="s">
+        <v>500</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>501</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>494</v>
+      </c>
+      <c r="X61" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>503</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>504</v>
+      </c>
+      <c r="J62" t="s">
+        <v>505</v>
+      </c>
+      <c r="K62" t="s">
+        <v>506</v>
+      </c>
+      <c r="L62" t="s">
+        <v>507</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>488</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>508</v>
+      </c>
+      <c r="X62" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>511</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>512</v>
+      </c>
+      <c r="J63" t="s">
+        <v>513</v>
+      </c>
+      <c r="K63" t="s">
+        <v>514</v>
+      </c>
+      <c r="L63" t="s">
+        <v>515</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>516</v>
+      </c>
+      <c r="O63" t="s">
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>508</v>
+      </c>
+      <c r="X63" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>518</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>519</v>
+      </c>
+      <c r="J64" t="s">
+        <v>520</v>
+      </c>
+      <c r="K64" t="s">
+        <v>521</v>
+      </c>
+      <c r="L64" t="s">
+        <v>522</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>508</v>
+      </c>
+      <c r="X64" t="s">
+        <v>509</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>524</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>525</v>
+      </c>
+      <c r="J65" t="s">
+        <v>526</v>
+      </c>
+      <c r="K65" t="s">
+        <v>527</v>
+      </c>
+      <c r="L65" t="s">
+        <v>528</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>529</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>530</v>
+      </c>
+      <c r="X65" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>533</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>534</v>
+      </c>
+      <c r="J66" t="s">
+        <v>535</v>
+      </c>
+      <c r="K66" t="s">
+        <v>536</v>
+      </c>
+      <c r="L66" t="s">
+        <v>537</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>538</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>539</v>
+      </c>
+      <c r="X66" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>542</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>543</v>
+      </c>
+      <c r="J67" t="s">
+        <v>535</v>
+      </c>
+      <c r="K67" t="s">
+        <v>544</v>
+      </c>
+      <c r="L67" t="s">
+        <v>545</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>538</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>546</v>
+      </c>
+      <c r="X67" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>549</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>550</v>
+      </c>
+      <c r="J68" t="s">
+        <v>551</v>
+      </c>
+      <c r="K68" t="s">
+        <v>552</v>
+      </c>
+      <c r="L68" t="s">
+        <v>553</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>529</v>
+      </c>
+      <c r="O68" t="s">
+        <v>67</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>554</v>
+      </c>
+      <c r="X68" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>557</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>558</v>
+      </c>
+      <c r="J69" t="s">
+        <v>559</v>
+      </c>
+      <c r="K69" t="s">
+        <v>560</v>
+      </c>
+      <c r="L69" t="s">
+        <v>561</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>439</v>
+      </c>
+      <c r="O69" t="s">
+        <v>174</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>562</v>
+      </c>
+      <c r="X69" t="s">
+        <v>563</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>565</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>566</v>
+      </c>
+      <c r="J70" t="s">
+        <v>567</v>
+      </c>
+      <c r="K70" t="s">
+        <v>568</v>
+      </c>
+      <c r="L70" t="s">
+        <v>569</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>439</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>570</v>
+      </c>
+      <c r="X70" t="s">
+        <v>571</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>573</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>574</v>
+      </c>
+      <c r="J71" t="s">
+        <v>575</v>
+      </c>
+      <c r="K71" t="s">
+        <v>576</v>
+      </c>
+      <c r="L71" t="s">
+        <v>577</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>516</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>578</v>
+      </c>
+      <c r="X71" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>581</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>582</v>
+      </c>
+      <c r="J72" t="s">
+        <v>583</v>
+      </c>
+      <c r="K72" t="s">
+        <v>584</v>
+      </c>
+      <c r="L72" t="s">
+        <v>585</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>586</v>
+      </c>
+      <c r="X72" t="s">
+        <v>587</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>589</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>590</v>
+      </c>
+      <c r="J73" t="s">
+        <v>591</v>
+      </c>
+      <c r="K73" t="s">
+        <v>592</v>
+      </c>
+      <c r="L73" t="s">
+        <v>593</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>594</v>
+      </c>
+      <c r="O73" t="s">
+        <v>174</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>595</v>
+      </c>
+      <c r="X73" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>598</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>599</v>
+      </c>
+      <c r="J74" t="s">
+        <v>600</v>
+      </c>
+      <c r="K74" t="s">
+        <v>601</v>
+      </c>
+      <c r="L74" t="s">
+        <v>602</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>603</v>
+      </c>
+      <c r="X74" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>606</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>607</v>
+      </c>
+      <c r="J75" t="s">
+        <v>608</v>
+      </c>
+      <c r="K75" t="s">
+        <v>609</v>
+      </c>
+      <c r="L75" t="s">
+        <v>610</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>611</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>612</v>
+      </c>
+      <c r="X75" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>615</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>616</v>
+      </c>
+      <c r="J76" t="s">
+        <v>617</v>
+      </c>
+      <c r="K76" t="s">
+        <v>618</v>
+      </c>
+      <c r="L76" t="s">
+        <v>619</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>612</v>
+      </c>
+      <c r="X76" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>621</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>622</v>
+      </c>
+      <c r="J77" t="s">
+        <v>623</v>
+      </c>
+      <c r="K77" t="s">
+        <v>624</v>
+      </c>
+      <c r="L77" t="s">
+        <v>625</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>626</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>627</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>628</v>
+      </c>
+      <c r="J78" t="s">
+        <v>629</v>
+      </c>
+      <c r="K78" t="s">
+        <v>630</v>
+      </c>
+      <c r="L78" t="s">
+        <v>631</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>626</v>
+      </c>
+      <c r="O78" t="s">
+        <v>67</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>612</v>
+      </c>
+      <c r="X78" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>633</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>634</v>
+      </c>
+      <c r="J79" t="s">
+        <v>635</v>
+      </c>
+      <c r="K79" t="s">
+        <v>636</v>
+      </c>
+      <c r="L79" t="s">
+        <v>637</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>638</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>612</v>
+      </c>
+      <c r="X79" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>640</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>641</v>
+      </c>
+      <c r="J80" t="s">
+        <v>642</v>
+      </c>
+      <c r="K80" t="s">
+        <v>643</v>
+      </c>
+      <c r="L80" t="s">
+        <v>644</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s"/>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>645</v>
+      </c>
+      <c r="X80" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>648</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>649</v>
+      </c>
+      <c r="J81" t="s">
+        <v>650</v>
+      </c>
+      <c r="K81" t="s">
+        <v>651</v>
+      </c>
+      <c r="L81" t="s">
+        <v>652</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>653</v>
+      </c>
+      <c r="O81" t="s">
+        <v>314</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>645</v>
+      </c>
+      <c r="X81" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>655</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>656</v>
+      </c>
+      <c r="J82" t="s">
+        <v>650</v>
+      </c>
+      <c r="K82" t="s">
+        <v>657</v>
+      </c>
+      <c r="L82" t="s">
+        <v>658</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>4</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>645</v>
+      </c>
+      <c r="X82" t="s">
+        <v>646</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>660</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>661</v>
+      </c>
+      <c r="J83" t="s">
+        <v>662</v>
+      </c>
+      <c r="K83" t="s">
+        <v>663</v>
+      </c>
+      <c r="L83" t="s">
+        <v>664</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>665</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>666</v>
+      </c>
+      <c r="J84" t="s">
+        <v>667</v>
+      </c>
+      <c r="K84" t="s">
+        <v>668</v>
+      </c>
+      <c r="L84" t="s">
+        <v>669</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>670</v>
+      </c>
+      <c r="O84" t="s">
+        <v>67</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>4</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>671</v>
+      </c>
+      <c r="X84" t="s">
+        <v>672</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>674</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>675</v>
+      </c>
+      <c r="J85" t="s">
+        <v>676</v>
+      </c>
+      <c r="K85" t="s">
+        <v>74</v>
+      </c>
+      <c r="L85" t="s">
+        <v>677</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>670</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>678</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>679</v>
+      </c>
+      <c r="J86" t="s">
+        <v>680</v>
+      </c>
+      <c r="K86" t="s">
+        <v>681</v>
+      </c>
+      <c r="L86" t="s">
+        <v>682</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>683</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>685</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>686</v>
+      </c>
+      <c r="J87" t="s">
+        <v>687</v>
+      </c>
+      <c r="K87" t="s">
+        <v>688</v>
+      </c>
+      <c r="L87" t="s">
+        <v>689</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>691</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>692</v>
+      </c>
+      <c r="J88" t="s">
+        <v>693</v>
+      </c>
+      <c r="K88" t="s">
+        <v>694</v>
+      </c>
+      <c r="L88" t="s">
+        <v>695</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s"/>
+      <c r="O88" t="s"/>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>696</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>697</v>
+      </c>
+      <c r="J89" t="s">
+        <v>698</v>
+      </c>
+      <c r="K89" t="s">
+        <v>699</v>
+      </c>
+      <c r="L89" t="s">
+        <v>700</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>701</v>
+      </c>
+      <c r="O89" t="s">
+        <v>174</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>702</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>703</v>
+      </c>
+      <c r="J90" t="s">
+        <v>704</v>
+      </c>
+      <c r="K90" t="s">
+        <v>705</v>
+      </c>
+      <c r="L90" t="s">
+        <v>706</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>707</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>709</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>710</v>
+      </c>
+      <c r="J91" t="s">
+        <v>711</v>
+      </c>
+      <c r="K91" t="s">
+        <v>712</v>
+      </c>
+      <c r="L91" t="s">
+        <v>713</v>
+      </c>
+      <c r="M91" t="n">
+        <v>3</v>
+      </c>
+      <c r="N91" t="s">
+        <v>707</v>
+      </c>
+      <c r="O91" t="s">
+        <v>67</v>
+      </c>
+      <c r="P91" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>2</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>715</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>716</v>
+      </c>
+      <c r="J92" t="s">
+        <v>717</v>
+      </c>
+      <c r="K92" t="s">
+        <v>718</v>
+      </c>
+      <c r="L92" t="s">
+        <v>719</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>720</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>721</v>
+      </c>
+      <c r="X92" t="s">
+        <v>722</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>724</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>725</v>
+      </c>
+      <c r="J93" t="s">
+        <v>726</v>
+      </c>
+      <c r="K93" t="s">
+        <v>727</v>
+      </c>
+      <c r="L93" t="s">
+        <v>728</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>720</v>
+      </c>
+      <c r="O93" t="s">
+        <v>67</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>729</v>
+      </c>
+      <c r="X93" t="s">
+        <v>730</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>732</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>733</v>
+      </c>
+      <c r="J94" t="s">
+        <v>734</v>
+      </c>
+      <c r="K94" t="s">
+        <v>735</v>
+      </c>
+      <c r="L94" t="s">
+        <v>736</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>737</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>738</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>739</v>
+      </c>
+      <c r="J95" t="s">
+        <v>740</v>
+      </c>
+      <c r="K95" t="s">
+        <v>741</v>
+      </c>
+      <c r="L95" t="s">
+        <v>742</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>743</v>
+      </c>
+      <c r="O95" t="s">
+        <v>67</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>744</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>745</v>
+      </c>
+      <c r="J96" t="s">
+        <v>746</v>
+      </c>
+      <c r="K96" t="s">
+        <v>747</v>
+      </c>
+      <c r="L96" t="s">
+        <v>748</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>743</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>749</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>750</v>
+      </c>
+      <c r="J97" t="s">
+        <v>751</v>
+      </c>
+      <c r="K97" t="s">
+        <v>752</v>
+      </c>
+      <c r="L97" t="s">
+        <v>753</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>743</v>
+      </c>
+      <c r="O97" t="s">
+        <v>67</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>754</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>755</v>
+      </c>
+      <c r="J98" t="s">
+        <v>756</v>
+      </c>
+      <c r="K98" t="s">
+        <v>757</v>
+      </c>
+      <c r="L98" t="s">
+        <v>758</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>759</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>761</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>762</v>
+      </c>
+      <c r="J99" t="s">
+        <v>763</v>
+      </c>
+      <c r="K99" t="s">
+        <v>764</v>
+      </c>
+      <c r="L99" t="s">
+        <v>765</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>766</v>
+      </c>
+      <c r="O99" t="s">
+        <v>85</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>59732</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>767</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>768</v>
+      </c>
+      <c r="J100" t="s">
+        <v>769</v>
+      </c>
+      <c r="K100" t="s">
+        <v>770</v>
+      </c>
+      <c r="L100" t="s">
+        <v>771</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>772</v>
+      </c>
+      <c r="O100" t="s">
+        <v>174</v>
+      </c>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>773</v>
       </c>
     </row>
   </sheetData>
